--- a/data/hotels_by_city/Denver/Denver_shard_129.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_129.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33591-d543070-Reviews-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Denver-Parker-E470Parker-Road.h1184067.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1474 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r589089499-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>33591</t>
+  </si>
+  <si>
+    <t>543070</t>
+  </si>
+  <si>
+    <t>589089499</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Great Hotel </t>
+  </si>
+  <si>
+    <t>Beautiful facilities and a very helpful staff. The top floor restaurant was unique and had great views. Our room was very spacious and they were kind and patient with my Son. Lucy at check in provided Great service.  The hotel is on the top of the hill and has some of the best views in that part of Denver.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelsey W, Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Beautiful facilities and a very helpful staff. The top floor restaurant was unique and had great views. Our room was very spacious and they were kind and patient with my Son. Lucy at check in provided Great service.  The hotel is on the top of the hill and has some of the best views in that part of Denver.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r568966293-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>568966293</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Great management and front desk</t>
+  </si>
+  <si>
+    <t>My friend and I had an emergency situation when we stayed at the hotel, and the Asst. General Manager went out of her way to make things easy for us and accommodate our request.  She is five stars, and we'll go back.  Thanks, Amy Wadsworth!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r554445181-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>554445181</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Family Get Away</t>
+  </si>
+  <si>
+    <t>Great hotel! It was clean and quiet. Our kids spent a fair amount of time at the pool which also was very clean.  The restaurant/bar on the top level was wonderful with specialty cocktails. Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r535807502-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>535807502</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Pretty on the Outside...</t>
+  </si>
+  <si>
+    <t>We were given the hotel info by someone for a wedding.  I'm sure she spent a lot of time and effort locating a hotel that was right for her guests.   We were told to contact "Jimmy" for rates etc but he never returned my calls.  I called again and was told "Jimmy" no longer worked there so I left messages for the new person (Kenny, I think his name was).  Again, no return calls.  Not knowing the area or what the bride may have had planned, we booked anyway - even though we didn't get the negotiated rate (others had similar problems).  The hotel was pretty on the outside and in a nice location - the room quiet, pillows comfy, staff (that we were able to talk to) fairly friendly.  The room was clean for the most part but the carpeting was stained and needed to be cleaned.  Also, the sheer on the window was badly torn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>We were given the hotel info by someone for a wedding.  I'm sure she spent a lot of time and effort locating a hotel that was right for her guests.   We were told to contact "Jimmy" for rates etc but he never returned my calls.  I called again and was told "Jimmy" no longer worked there so I left messages for the new person (Kenny, I think his name was).  Again, no return calls.  Not knowing the area or what the bride may have had planned, we booked anyway - even though we didn't get the negotiated rate (others had similar problems).  The hotel was pretty on the outside and in a nice location - the room quiet, pillows comfy, staff (that we were able to talk to) fairly friendly.  The room was clean for the most part but the carpeting was stained and needed to be cleaned.  Also, the sheer on the window was badly torn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r531831753-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>531831753</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Choosing a hotel for a memorial service</t>
+  </si>
+  <si>
+    <t>In all honesty we ended up NOT staying here.I was trying to secure many rooms for family flying in for my mom's service.These folks were rude,didn't get back to me and just weren't interested.We ended up staying at the Hampton which was a wonderful experience from beginning to end with delicious comp breakfast. I highly recommend it!Especially because of the poor unhelpful attitude at the Holiday InnMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>In all honesty we ended up NOT staying here.I was trying to secure many rooms for family flying in for my mom's service.These folks were rude,didn't get back to me and just weren't interested.We ended up staying at the Hampton which was a wonderful experience from beginning to end with delicious comp breakfast. I highly recommend it!Especially because of the poor unhelpful attitude at the Holiday InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r525216497-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>525216497</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>AWESOME!!!!</t>
+  </si>
+  <si>
+    <t>Customer Service is the BEST at this hotel.  Treated like royalty.  I have never, in all my travels for 50 years, found a better hotel that concentrates on customer needs and comfort!!!  The room was clean and beautiful.  Pool and hot tub just the right temp.  Food great and what a view from the restaurant!!!  Thank you Pema and management - you are the real deal!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r519936603-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>519936603</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Near the Airport</t>
+  </si>
+  <si>
+    <t>This is an almost brand new hotel near the Denver airport.  I only stayed here for a night to sleep before my flight the next morning.  Felt it was very overpriced at $150/night.  Nothing special about it, although it was clean and quiet.  This hotel is within easy distance to restaurants and shopping in the cute town of Parker.  It's a nice alternative to the hotels that are "airport" hotels.  Otherwise, i would not stay there again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r517701259-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>517701259</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>I think I will be crossing Holiday Inn of my list of favorites.</t>
+  </si>
+  <si>
+    <t>I recently took a 9 day trip with my husband and carefully planned for our hotels along the way.  I have always liked Holiday Inn and was sure that I had made a good choice.  Our first problem came with booking.  We booked directly through Holiday Inn on their site.  We noticed they had many rooms that did not have free cancellation included.  We backed out and chose a different room as our trip was long enough that we wanted to be able to cancel if things didn't go as planned. We did our best to navigate their unclear website.  Holiday Inn withdrew our money from our bank 8 days before our arrival. This made me feel that they are a bit greedy and kind of made me mad as I have NEVER had this experience with ANY other chain.  When we arrived the proceeded to take at $25 fee for "incidentals".  I felt like they thought I was going to steal from them and was VERY offended.  Again, I have NEVER had any other hotel do this.  The hotel and room were nice but not any nicer than any of the other hotels I had chosen for this trip.  All of those chains treated me well and wanted me to continue to chose their chain for my future trips, which I wiil.  If you don't mind being treated in that manner this is a nice place but I will...I recently took a 9 day trip with my husband and carefully planned for our hotels along the way.  I have always liked Holiday Inn and was sure that I had made a good choice.  Our first problem came with booking.  We booked directly through Holiday Inn on their site.  We noticed they had many rooms that did not have free cancellation included.  We backed out and chose a different room as our trip was long enough that we wanted to be able to cancel if things didn't go as planned. We did our best to navigate their unclear website.  Holiday Inn withdrew our money from our bank 8 days before our arrival. This made me feel that they are a bit greedy and kind of made me mad as I have NEVER had this experience with ANY other chain.  When we arrived the proceeded to take at $25 fee for "incidentals".  I felt like they thought I was going to steal from them and was VERY offended.  Again, I have NEVER had any other hotel do this.  The hotel and room were nice but not any nicer than any of the other hotels I had chosen for this trip.  All of those chains treated me well and wanted me to continue to chose their chain for my future trips, which I wiil.  If you don't mind being treated in that manner this is a nice place but I will NEVER use Holiday Inn again after the way they made me feel.  btw, they are the only place we stayed where we could hear the hall noise due to the large gap under the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>I recently took a 9 day trip with my husband and carefully planned for our hotels along the way.  I have always liked Holiday Inn and was sure that I had made a good choice.  Our first problem came with booking.  We booked directly through Holiday Inn on their site.  We noticed they had many rooms that did not have free cancellation included.  We backed out and chose a different room as our trip was long enough that we wanted to be able to cancel if things didn't go as planned. We did our best to navigate their unclear website.  Holiday Inn withdrew our money from our bank 8 days before our arrival. This made me feel that they are a bit greedy and kind of made me mad as I have NEVER had this experience with ANY other chain.  When we arrived the proceeded to take at $25 fee for "incidentals".  I felt like they thought I was going to steal from them and was VERY offended.  Again, I have NEVER had any other hotel do this.  The hotel and room were nice but not any nicer than any of the other hotels I had chosen for this trip.  All of those chains treated me well and wanted me to continue to chose their chain for my future trips, which I wiil.  If you don't mind being treated in that manner this is a nice place but I will...I recently took a 9 day trip with my husband and carefully planned for our hotels along the way.  I have always liked Holiday Inn and was sure that I had made a good choice.  Our first problem came with booking.  We booked directly through Holiday Inn on their site.  We noticed they had many rooms that did not have free cancellation included.  We backed out and chose a different room as our trip was long enough that we wanted to be able to cancel if things didn't go as planned. We did our best to navigate their unclear website.  Holiday Inn withdrew our money from our bank 8 days before our arrival. This made me feel that they are a bit greedy and kind of made me mad as I have NEVER had this experience with ANY other chain.  When we arrived the proceeded to take at $25 fee for "incidentals".  I felt like they thought I was going to steal from them and was VERY offended.  Again, I have NEVER had any other hotel do this.  The hotel and room were nice but not any nicer than any of the other hotels I had chosen for this trip.  All of those chains treated me well and wanted me to continue to chose their chain for my future trips, which I wiil.  If you don't mind being treated in that manner this is a nice place but I will NEVER use Holiday Inn again after the way they made me feel.  btw, they are the only place we stayed where we could hear the hall noise due to the large gap under the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r512004745-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>512004745</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Has it all</t>
+  </si>
+  <si>
+    <t>New facility. Clean and comfortable. Very friendly front desk staff. Has a full service restaurant and lounge. Not cheap lodging, but very nice. Looks like plenty of parking. Easy access to Aurora and East Denver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r501445317-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>501445317</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, close to Parker Adventist Hospital</t>
+  </si>
+  <si>
+    <t>This is a nice hotel with a good view of Parker. It's conveniently located off of East 470. Our room was nicely accessorized with appropriate amenities. It has a pool and gym. Easy parking that's free.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r501048379-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>501048379</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Very clean, wonderful service - and animals are allowed!</t>
+  </si>
+  <si>
+    <t>We have stayed at this Holiday Inn a few times now with and without our 2 little dogs. The rooms are always clean and plenty of space too.The beds are very "comfy" and the bathroom felt sanitized when you walked in. I highly recommend if you arre in the area that this is one of the finest Holiday Inns to stay at.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r496872149-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>496872149</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Clean and well taken care of</t>
+  </si>
+  <si>
+    <t>Very friendly people working there. The hotel was clean and pleasant. The staff offered sights to see and answered any questions that we had. The rooms were clean and comfortable. They had ample room and nothing was broken down.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r490714585-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>490714585</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel in Parker</t>
+  </si>
+  <si>
+    <t>It really is the best hotel in Parker. There isn't a lot to choose from. Good thing about it is the location to everything. There is a Restaurant in the hotel on the 4th floor. The rooms are clean, the staff is very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>It really is the best hotel in Parker. There isn't a lot to choose from. Good thing about it is the location to everything. There is a Restaurant in the hotel on the 4th floor. The rooms are clean, the staff is very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r489458573-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>489458573</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Front desk staff very helpful</t>
+  </si>
+  <si>
+    <t>We just stay for 5 nights at this hotel and booked 2 rooms. Now I will start with my reservation I called directly to the hotel to book this as I needed some special needs room. Booked several months prior. Booking our room was down a long hallway and hard for a person with mobility problems. We brought our adult children and 2 grand daughters and they had a room with no refrigerator and didn't have a  sofa. ( needed to book a suite) Wasn't given that choice at booking. If you are wanting or of need of this type or size make sure you book it that way. Parker is a very limited hotel space and this was a holiday weekend and graduations so were not able to change.
+Now the hotel is very clean and neat and the maid staff did a very good job. Our room needed some TLC as there were loose tiles in bathroom along with peeling wall paper. Also the walls are very thin. Can hear people walking above us.
+Okay here comes the bad. They have a restaurant but if you  choose to do the meal plan beware that breakfast doesn't include coffee or juice. So we would go to the lobby get our coffee and than go to breakfast. Terrible service but think they are trying to fix that. Also we went for cocktail hour that had good food and nice music....We just stay for 5 nights at this hotel and booked 2 rooms. Now I will start with my reservation I called directly to the hotel to book this as I needed some special needs room. Booked several months prior. Booking our room was down a long hallway and hard for a person with mobility problems. We brought our adult children and 2 grand daughters and they had a room with no refrigerator and didn't have a  sofa. ( needed to book a suite) Wasn't given that choice at booking. If you are wanting or of need of this type or size make sure you book it that way. Parker is a very limited hotel space and this was a holiday weekend and graduations so were not able to change. Now the hotel is very clean and neat and the maid staff did a very good job. Our room needed some TLC as there were loose tiles in bathroom along with peeling wall paper. Also the walls are very thin. Can hear people walking above us.Okay here comes the bad. They have a restaurant but if you  choose to do the meal plan beware that breakfast doesn't include coffee or juice. So we would go to the lobby get our coffee and than go to breakfast. Terrible service but think they are trying to fix that. Also we went for cocktail hour that had good food and nice music. Worth a visit.  Talked to the front desk and was happy to solve problems when they could.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>We just stay for 5 nights at this hotel and booked 2 rooms. Now I will start with my reservation I called directly to the hotel to book this as I needed some special needs room. Booked several months prior. Booking our room was down a long hallway and hard for a person with mobility problems. We brought our adult children and 2 grand daughters and they had a room with no refrigerator and didn't have a  sofa. ( needed to book a suite) Wasn't given that choice at booking. If you are wanting or of need of this type or size make sure you book it that way. Parker is a very limited hotel space and this was a holiday weekend and graduations so were not able to change.
+Now the hotel is very clean and neat and the maid staff did a very good job. Our room needed some TLC as there were loose tiles in bathroom along with peeling wall paper. Also the walls are very thin. Can hear people walking above us.
+Okay here comes the bad. They have a restaurant but if you  choose to do the meal plan beware that breakfast doesn't include coffee or juice. So we would go to the lobby get our coffee and than go to breakfast. Terrible service but think they are trying to fix that. Also we went for cocktail hour that had good food and nice music....We just stay for 5 nights at this hotel and booked 2 rooms. Now I will start with my reservation I called directly to the hotel to book this as I needed some special needs room. Booked several months prior. Booking our room was down a long hallway and hard for a person with mobility problems. We brought our adult children and 2 grand daughters and they had a room with no refrigerator and didn't have a  sofa. ( needed to book a suite) Wasn't given that choice at booking. If you are wanting or of need of this type or size make sure you book it that way. Parker is a very limited hotel space and this was a holiday weekend and graduations so were not able to change. Now the hotel is very clean and neat and the maid staff did a very good job. Our room needed some TLC as there were loose tiles in bathroom along with peeling wall paper. Also the walls are very thin. Can hear people walking above us.Okay here comes the bad. They have a restaurant but if you  choose to do the meal plan beware that breakfast doesn't include coffee or juice. So we would go to the lobby get our coffee and than go to breakfast. Terrible service but think they are trying to fix that. Also we went for cocktail hour that had good food and nice music. Worth a visit.  Talked to the front desk and was happy to solve problems when they could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r487817932-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>487817932</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms and very clean!</t>
+  </si>
+  <si>
+    <t>We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had...We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had three kids with us we took them to an outdoor amusement area that is right across the highway from this hotel, it is called Boondocks and it offers all kinds of activities from Go Carts, Laser Tag, Bumper Boats, and Mini Golf. The hotel is in a good location with many entertainment options close by.  We truly enjoyed our stay at this Holiday Inn.  Thanks again to Lauren and Sarah who were always more than happy to help!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had...We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had three kids with us we took them to an outdoor amusement area that is right across the highway from this hotel, it is called Boondocks and it offers all kinds of activities from Go Carts, Laser Tag, Bumper Boats, and Mini Golf. The hotel is in a good location with many entertainment options close by.  We truly enjoyed our stay at this Holiday Inn.  Thanks again to Lauren and Sarah who were always more than happy to help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r480668365-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>480668365</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>One of the quietest hotels we have ever stayed in. Fun place to stay and a great hotel when you want to relax. The only reason I didn't give it the full 5 stars is because you can only get room service for breakfast up to 10:00 am and dinner, and the breakfast cost me $17 for bacon, eggs, toast and potatoes, and again $22 for bacon, eggs, toast and orange juice (go figure). Lots of restaurants around though, within walking distance. Very friendly, helpful staff, and beautiful view of the mountains.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r480083413-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>480083413</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Lack of value. The price per night includes a very clean room and comfortable bed. And that's about it. We did use the pool and hot tub, they were nice. There is no comfortable lounge anywhere to sit and visit with friends/family outside of the small room. Technically there are a couple seats right in front of the receptionist desk and front doors but there was nothing inviting about it and even felt awkward to sit there. They have the cafeteria style seating where they used to have breakfast but it isn't very comfortable. The restaurant/bars is pricey and closes earlier than bars do. Breakfast is not included and we didn't purchase it. We DID buy dinner one night from trappers and it was delish! But two meals and two drinks cost us $100+. Basically at this hotel you pay more than you would to get more elsewhere. You have to leave the hotel to get comfortable visiting which ultimately means eating out more and spending more money at other establishments. Don't get me wrong, I love wining and dining but sometimes a comfortable evening in is all we need! MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Lack of value. The price per night includes a very clean room and comfortable bed. And that's about it. We did use the pool and hot tub, they were nice. There is no comfortable lounge anywhere to sit and visit with friends/family outside of the small room. Technically there are a couple seats right in front of the receptionist desk and front doors but there was nothing inviting about it and even felt awkward to sit there. They have the cafeteria style seating where they used to have breakfast but it isn't very comfortable. The restaurant/bars is pricey and closes earlier than bars do. Breakfast is not included and we didn't purchase it. We DID buy dinner one night from trappers and it was delish! But two meals and two drinks cost us $100+. Basically at this hotel you pay more than you would to get more elsewhere. You have to leave the hotel to get comfortable visiting which ultimately means eating out more and spending more money at other establishments. Don't get me wrong, I love wining and dining but sometimes a comfortable evening in is all we need! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r476637731-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>476637731</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Rooms clean and comfortable; check in and out easy, and was able to get a quiet night's rest. Always stay here when visiting relatives and have never been disappointed. Would have appreciated a refrigerator in the room, but that's our only complaint.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r460682163-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>460682163</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Affordable, Huge Room, Nice Views, VERY CLEAN</t>
+  </si>
+  <si>
+    <t>I stayed here when visiting friends in Parker. I was very surprised with how big my room was. Everything was very clean and the hotel appeared to be new. Only problem I noticed was the vent in my room was a little noisy but, it did not stop me from getting a good night's sleep. The view from the room was better than expected with being able to see the front range and on one of the clearer days I visited, I was able to actually see the Denver skyline far in the distance. This hotel is located near some restaurants you could walk to such as red robin but otherwise a car is needed to get around here. I will definitely consider this hotel on my next trip to the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here when visiting friends in Parker. I was very surprised with how big my room was. Everything was very clean and the hotel appeared to be new. Only problem I noticed was the vent in my room was a little noisy but, it did not stop me from getting a good night's sleep. The view from the room was better than expected with being able to see the front range and on one of the clearer days I visited, I was able to actually see the Denver skyline far in the distance. This hotel is located near some restaurants you could walk to such as red robin but otherwise a car is needed to get around here. I will definitely consider this hotel on my next trip to the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r457618480-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>457618480</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Okay location bring back the breakfast</t>
+  </si>
+  <si>
+    <t>Okay some wise owl figured let's attach a third party restaurant and get rid of the traditional Holiday Inn Express breakfast. Like what were you thinking breaking the rules of why we love Holiday Inn. Senior management is sort of cold so expect and quick brush off to the room. For sure get a room not facing E470 and you will be okay for road noise. However, the walls are thin so I endured a coughing and snoring guy all night long. Oh and another thing only the suites have the microwave and small fridge so that was missed. Overall okay stay for location.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Okay some wise owl figured let's attach a third party restaurant and get rid of the traditional Holiday Inn Express breakfast. Like what were you thinking breaking the rules of why we love Holiday Inn. Senior management is sort of cold so expect and quick brush off to the room. For sure get a room not facing E470 and you will be okay for road noise. However, the walls are thin so I endured a coughing and snoring guy all night long. Oh and another thing only the suites have the microwave and small fridge so that was missed. Overall okay stay for location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r452911290-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>452911290</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Go to hotel when in Parker</t>
+  </si>
+  <si>
+    <t>This hotel is located next to E470, so access by car is convenient. Uber is available as well.it has a few restaurants nearby, walking distance. It has indoor pool, breakfast area and rooms are big, enough for small family. Staff are friendly and can cater to your request.It also has self service laundry which is nice for long stay.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r442014737-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>442014737</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Spacious Room and Good Service</t>
+  </si>
+  <si>
+    <t>The room was much bigger than I expected, almost like a suite.  There are several dining options in the area, as well as a restaurant in the hotel (I didn't try them.)  No refrigerator in the room.  Also, if you're on the first floor you'll have to go to the front desk or up to the second floor for ice.  Not a huge deal though.The girl at the front desk was awesome, very friendly and efficient.I recommend this hotel if you're going to be in Parker.  It's well situated, the room was great and the rates were not bad at all.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r436623095-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>436623095</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>No advance notice that the pool was closed</t>
+  </si>
+  <si>
+    <t>This was a perfectly OK Holiday Inn.  But there was no mention online that the pool AND hot tub were closed.  We also received no additional discount for the closed pool.  They said we could use the pool at the Hampton (which I never saw because it's one-third of a mile away, so that's not something you'd walk to in the dark with no sidewalk in your swimming suit, just to relax in the hot tub).  The downstairs breakfast buffet was quite expensive.  The least they could have done was offer the breakfast free as a compensation for the closed pool and hot tub.On the middle day of our 2-night stay, we came back to our room at one and there had been no housekeeping done, no trash or used towels taken out.  At the time we left the room at 8:30 am, the maid and housekeeping cart were directly in front of our room, so we figured our room would be next.  I called the front desk to report this.  I said, at this point, to please service the room after 2:30 pm.  They did.We slept well; didn't notice any freeway noises on the 3rd floor.  The staff was courteous and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded November 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2016</t>
+  </si>
+  <si>
+    <t>This was a perfectly OK Holiday Inn.  But there was no mention online that the pool AND hot tub were closed.  We also received no additional discount for the closed pool.  They said we could use the pool at the Hampton (which I never saw because it's one-third of a mile away, so that's not something you'd walk to in the dark with no sidewalk in your swimming suit, just to relax in the hot tub).  The downstairs breakfast buffet was quite expensive.  The least they could have done was offer the breakfast free as a compensation for the closed pool and hot tub.On the middle day of our 2-night stay, we came back to our room at one and there had been no housekeeping done, no trash or used towels taken out.  At the time we left the room at 8:30 am, the maid and housekeeping cart were directly in front of our room, so we figured our room would be next.  I called the front desk to report this.  I said, at this point, to please service the room after 2:30 pm.  They did.We slept well; didn't notice any freeway noises on the 3rd floor.  The staff was courteous and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r434298344-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>434298344</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, nice options in area</t>
+  </si>
+  <si>
+    <t>Was here just for the night, and stayed here because a nearby Holiday Inn Express was full... got close to the same rate and really found it to be a winner.I appreciated staff's suggestion that I try Uber instead of taking a cab to/from the Denver International Airport - saved me a bundle (nearly 50%) and had a great experience trying Uber for the first time!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r410156906-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>410156906</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel with Awesome Steak House attached!</t>
+  </si>
+  <si>
+    <t>Stayed here in August for 3 nights on business, great experience!  Clean and roomy rooms that have desk and couch perfect for an extended stay.  But, the best thing about this place is the In hotel chop house, Trapper's.  Great Steaks and service.  Nicest restaurant in a Holiday Inn I have seen by a long shot!  Highly recommended!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r410076976-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>410076976</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel is great in general. Clean room, Clean and spacious bathroom, and great breakfast buffet. Two things that I did not like was, their Internet (it is super Slow) and their mattress. Other than that I cannot complain, they even gave a 10$ token to eat at the Trappers Chop House.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r394917351-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>394917351</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>Staff was very helpful and the rooms are very clean!  Needed to stay extra night and the front desk staff accommodated us without any hassle.  Breakfast was fantastic, very delicious and service was excellent.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r366214485-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>366214485</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Nice and friendly, but No Free breakfast</t>
+  </si>
+  <si>
+    <t>I picked this hotel for the location, and the hotel was going to charge me over 150 bucks a night.  They were nice and gave me a discount.  In this area, the hotels are a little expensive.  SO, this is not just this hotel. My only complaint was that the hotel charges for breakfast.  I'm not used to this.  I stayed here for a full week.  The hotel does have a restaurant on the 4th floor.  I ate there late on the first night.  Way expensive, but, good food.  The internet was Fantastic!  And that was really important for me.  SO, if all of this is ok for you, then this is a wonderful place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I picked this hotel for the location, and the hotel was going to charge me over 150 bucks a night.  They were nice and gave me a discount.  In this area, the hotels are a little expensive.  SO, this is not just this hotel. My only complaint was that the hotel charges for breakfast.  I'm not used to this.  I stayed here for a full week.  The hotel does have a restaurant on the 4th floor.  I ate there late on the first night.  Way expensive, but, good food.  The internet was Fantastic!  And that was really important for me.  SO, if all of this is ok for you, then this is a wonderful place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r365715172-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>365715172</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Great service, good location</t>
+  </si>
+  <si>
+    <t>I thought this hotel was closer to the University of Colorado Medical School campus but it really isn't. But it is 2 exits and maybe 5 minutes away. The plus is that it is really close to lots of shopping and good places to eat. The service at this hotel is nice and friendly. The room is definitely average since the hotel is older. It could use updating. The breakfast bar was good and all the food warm and fresh. The hotel was safe and the bed comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r363906525-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>363906525</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week stay </t>
+  </si>
+  <si>
+    <t>Arrived Monday afternoon, had no problems checking in and my stay was very uneventful I'm going to try the steakhouse on site, I've been told that it is very good Rooms clean and well organized,I will come back to this location soon all the staff were very friendly and helpful</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r330836196-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>330836196</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Most comfortable hotel bed ever</t>
+  </si>
+  <si>
+    <t>We stayed here one night after arriving on a late flight. We were exhausted and just wanted a great night's sleep. We got it here. The bed was amazing. The pillows were great. It was, by far, the quietest hotel we've ever stayed in. The room was clean and spacious. If we had been there in time we would have tried the steakhouse as it looked really good. We will certainly stay here again next time we are in town.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r318151537-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>318151537</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Quietest hotel I've stayed in</t>
+  </si>
+  <si>
+    <t>Contrary to other reviews, I thought this hotel was relatively new. Very convenient to E-470. A restaurant/steakhouse on the top floor. You're given a $10 coin for use at the restaurant upon check in. I never heard a door slam echoing through the hallway or heavy footsteps above during my stay. Rather unusual for any hotel, but a pleasant surprise. Front desk staff was pleasant and check in/out was a breeze.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r313520481-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>313520481</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>getting a bit worn</t>
+  </si>
+  <si>
+    <t>This HI is about 10 years old, and is showing its age. Rooms are rather plain and the furniture is worn, and sometimes stained.  They charge an extra $13 per person for a very ordinary motel breakfast bar.  Wifi was painfully slow. Definitely not worth the $150 pricetag.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>This HI is about 10 years old, and is showing its age. Rooms are rather plain and the furniture is worn, and sometimes stained.  They charge an extra $13 per person for a very ordinary motel breakfast bar.  Wifi was painfully slow. Definitely not worth the $150 pricetag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r303074667-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>303074667</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Lovely experience</t>
+  </si>
+  <si>
+    <t>My husband and I stayed the night here for our wedding night.  When we arrived the room was tidy and looked very nice, there was even a bottle of wine waiting for us! The hotel seemed very quiet and and the staff was polite. My only complaint is that there seemed to be a temperature control issue on the fourth floor, outside of our room it was extremely hot. The issue with the temperature wouldn't prevent me from staying there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed the night here for our wedding night.  When we arrived the room was tidy and looked very nice, there was even a bottle of wine waiting for us! The hotel seemed very quiet and and the staff was polite. My only complaint is that there seemed to be a temperature control issue on the fourth floor, outside of our room it was extremely hot. The issue with the temperature wouldn't prevent me from staying there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r302479178-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>302479178</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Irritating visit</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it will most likely be my last.  Upon check-in we were greeted nicely by the two front desk ladies...that was the end of the nice experience.  
+I am a member and alway ask for a high floor so I was happy to have been given a room on the 4th floor. When we entered the room it smelled heavily of smoke. I called the front desk and they said all their rooms are nonsmoking, asked if I had the windows open because of the fires in neighboring states had been causing a smoky smell in the area and I assured her we hadn't  gotten that far because we had just entered the room.  She wanted to come up and check it out for herself so we waited for her to do that. 
+When she came in, she had keys for another room and apologized stating that  the previous lady that stayed in there did smoke so the room was supposed to be locked down and nobody given the room. She moved us to second floor, but asked first to remain on the top floor since my experience is that being underneath floors is loud. She didn't have anything. 
+So we lugged all our things to the second floor (while we had friends waiting for  us to go to dinner) and noticed a privacy hanger on the door before we entered so we were a...Stayed here for one night and it will most likely be my last.  Upon check-in we were greeted nicely by the two front desk ladies...that was the end of the nice experience.  I am a member and alway ask for a high floor so I was happy to have been given a room on the 4th floor. When we entered the room it smelled heavily of smoke. I called the front desk and they said all their rooms are nonsmoking, asked if I had the windows open because of the fires in neighboring states had been causing a smoky smell in the area and I assured her we hadn't  gotten that far because we had just entered the room.  She wanted to come up and check it out for herself so we waited for her to do that. When she came in, she had keys for another room and apologized stating that  the previous lady that stayed in there did smoke so the room was supposed to be locked down and nobody given the room. She moved us to second floor, but asked first to remain on the top floor since my experience is that being underneath floors is loud. She didn't have anything. So we lugged all our things to the second floor (while we had friends waiting for  us to go to dinner) and noticed a privacy hanger on the door before we entered so we were a bit scared to open the door. Sure enough when we did, people were already in there. ..Super embarrassing  and wrong! We then lugged all our stuff back to the front desk to let them know. I was no longer in a pleasant mood  as we had kept people waiting and we were all hungry. Finally got to another room on the second floor and that was ok. Went to dinner and then bed at around midnight.Was woken up at 5 am to what sounded like repairs being made to the room above me. It was so loud and maybe it was just a person getting ready for the day, but very loud. It was a continuous noise fest for the rest of the morning with hearing people walk above, traffic outside, voices from neighboring rooms, doors slamming and even a dog barking. Very loud and not restful at all. So, if you are looking for a relaxing a peaceful night's rest, this is not the place. Thankfully, it was only a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it will most likely be my last.  Upon check-in we were greeted nicely by the two front desk ladies...that was the end of the nice experience.  
+I am a member and alway ask for a high floor so I was happy to have been given a room on the 4th floor. When we entered the room it smelled heavily of smoke. I called the front desk and they said all their rooms are nonsmoking, asked if I had the windows open because of the fires in neighboring states had been causing a smoky smell in the area and I assured her we hadn't  gotten that far because we had just entered the room.  She wanted to come up and check it out for herself so we waited for her to do that. 
+When she came in, she had keys for another room and apologized stating that  the previous lady that stayed in there did smoke so the room was supposed to be locked down and nobody given the room. She moved us to second floor, but asked first to remain on the top floor since my experience is that being underneath floors is loud. She didn't have anything. 
+So we lugged all our things to the second floor (while we had friends waiting for  us to go to dinner) and noticed a privacy hanger on the door before we entered so we were a...Stayed here for one night and it will most likely be my last.  Upon check-in we were greeted nicely by the two front desk ladies...that was the end of the nice experience.  I am a member and alway ask for a high floor so I was happy to have been given a room on the 4th floor. When we entered the room it smelled heavily of smoke. I called the front desk and they said all their rooms are nonsmoking, asked if I had the windows open because of the fires in neighboring states had been causing a smoky smell in the area and I assured her we hadn't  gotten that far because we had just entered the room.  She wanted to come up and check it out for herself so we waited for her to do that. When she came in, she had keys for another room and apologized stating that  the previous lady that stayed in there did smoke so the room was supposed to be locked down and nobody given the room. She moved us to second floor, but asked first to remain on the top floor since my experience is that being underneath floors is loud. She didn't have anything. So we lugged all our things to the second floor (while we had friends waiting for  us to go to dinner) and noticed a privacy hanger on the door before we entered so we were a bit scared to open the door. Sure enough when we did, people were already in there. ..Super embarrassing  and wrong! We then lugged all our stuff back to the front desk to let them know. I was no longer in a pleasant mood  as we had kept people waiting and we were all hungry. Finally got to another room on the second floor and that was ok. Went to dinner and then bed at around midnight.Was woken up at 5 am to what sounded like repairs being made to the room above me. It was so loud and maybe it was just a person getting ready for the day, but very loud. It was a continuous noise fest for the rest of the morning with hearing people walk above, traffic outside, voices from neighboring rooms, doors slamming and even a dog barking. Very loud and not restful at all. So, if you are looking for a relaxing a peaceful night's rest, this is not the place. Thankfully, it was only a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r299011096-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>299011096</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Pleasant and comfortable</t>
+  </si>
+  <si>
+    <t>We were here for a couple nights from out of town visiting friends, and this was a very comfortable stay. It was located near lots of restaurant options and main transportation corridors. The room was large and clean, and the mattress very comfortable. Staff was friendly, and the free coffee was good. The pool and jacuzzi were very relaxing for a morning workout to get the blood pumping. A suggestion would be that the staff go into a bit more detail up front about what is available in terms of amenities, such as the breakfast situation (included or not?) and the gym across the street. We wouldn't have known the drill about those things unless we had asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>We were here for a couple nights from out of town visiting friends, and this was a very comfortable stay. It was located near lots of restaurant options and main transportation corridors. The room was large and clean, and the mattress very comfortable. Staff was friendly, and the free coffee was good. The pool and jacuzzi were very relaxing for a morning workout to get the blood pumping. A suggestion would be that the staff go into a bit more detail up front about what is available in terms of amenities, such as the breakfast situation (included or not?) and the gym across the street. We wouldn't have known the drill about those things unless we had asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r291579099-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>291579099</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Nice, nice, nice</t>
+  </si>
+  <si>
+    <t>This was a spur of the moment get away to use a free night before we would lose it.  What a great choice!  A leisurely drive down, an early check in and a few minutes later we were enjoying the pool.  The pool area was  very clean and easy to access.  The king suite was comfortable and view of the mountains was nice.  We were on the top floor with just a few rooms so it was pleasantly quiet.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2015</t>
+  </si>
+  <si>
+    <t>This was a spur of the moment get away to use a free night before we would lose it.  What a great choice!  A leisurely drive down, an early check in and a few minutes later we were enjoying the pool.  The pool area was  very clean and easy to access.  The king suite was comfortable and view of the mountains was nice.  We were on the top floor with just a few rooms so it was pleasantly quiet.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r287385482-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>287385482</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Regret!!!</t>
+  </si>
+  <si>
+    <t>Felt staying in an 80's property that was dark, dim and out-dated room without refrigeration and adequate sockets for electronics; the room was small that desk chair kept hitting the bed; and the bed was too soft. Got kicked out of wifi every few minutes; and its speed was very slow. Really old equipment in the gym. No free fruit or coffee in the lobby like at Hilton and Hyatt. Certainly no free breakfast. A ‘smart alle’ at check-in made us to go back down 3 times to get our room keys right. We shortened our stay and moved to a much nice place and paid 40% less per night!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Felt staying in an 80's property that was dark, dim and out-dated room without refrigeration and adequate sockets for electronics; the room was small that desk chair kept hitting the bed; and the bed was too soft. Got kicked out of wifi every few minutes; and its speed was very slow. Really old equipment in the gym. No free fruit or coffee in the lobby like at Hilton and Hyatt. Certainly no free breakfast. A ‘smart alle’ at check-in made us to go back down 3 times to get our room keys right. We shortened our stay and moved to a much nice place and paid 40% less per night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r284492166-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>284492166</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Nice newer hotel</t>
+  </si>
+  <si>
+    <t>This is a newer hotel and is very clean. The restaurant/bar is on the top floor ( 4th ) and has a great view of the mountains. The food was good, if a little over seasoned for my simple palate. I will return when I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>This is a newer hotel and is very clean. The restaurant/bar is on the top floor ( 4th ) and has a great view of the mountains. The food was good, if a little over seasoned for my simple palate. I will return when I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r275198873-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>275198873</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Stayed 6 Weeks on Business</t>
+  </si>
+  <si>
+    <t>I am a Manager with a large Retailer and stayed here for 6 weeks-Comfortable room-Nice Pool Hot tub area-Ok exercise area could have used some dumbbell's but the exercise machine was adequate as I am an avid fitness enthusiast it also has 2 nice treadmills - a seated exercise bike and a decent elliptical-Nice location to most things  food-movie theater not far from Arapahoe road on Parker quiet -decent breakfast -area eggs-sausage=French toast-fruit the usual fair but plenty-Front desk was very helpful Andrea was awesome-room was kept clean would stop here again 6 weeks is a long time in a hotel but it was comfortable and I liked the location Cosco is just across the way and it has a decent view of the mountains thumbs up -MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I am a Manager with a large Retailer and stayed here for 6 weeks-Comfortable room-Nice Pool Hot tub area-Ok exercise area could have used some dumbbell's but the exercise machine was adequate as I am an avid fitness enthusiast it also has 2 nice treadmills - a seated exercise bike and a decent elliptical-Nice location to most things  food-movie theater not far from Arapahoe road on Parker quiet -decent breakfast -area eggs-sausage=French toast-fruit the usual fair but plenty-Front desk was very helpful Andrea was awesome-room was kept clean would stop here again 6 weeks is a long time in a hotel but it was comfortable and I liked the location Cosco is just across the way and it has a decent view of the mountains thumbs up -More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r274007924-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>274007924</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Staff consistently rude</t>
+  </si>
+  <si>
+    <t>I have stayed here at least four times. The front desk all the way to wait staff are rude and uncaring. The first few times, I thought they were having a bad day. This has only gotten worse since my last stay. I refuse to spend my hard earned money on people that are rude. I will be staying at Hampton next time. If they hate their jobs so much, they should seek employment elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here at least four times. The front desk all the way to wait staff are rude and uncaring. The first few times, I thought they were having a bad day. This has only gotten worse since my last stay. I refuse to spend my hard earned money on people that are rude. I will be staying at Hampton next time. If they hate their jobs so much, they should seek employment elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r268416544-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>268416544</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Pricey</t>
+  </si>
+  <si>
+    <t>We stayed here this past weekend while traveling. We called ahead of time and was given a rate of $117. When we showed up an hour later, which was midnight, we were given a rate of $129.00. We asked about a AAA discount which they granted but didn't apply it to our bill. I guess the later you check in, the more expensive the rate will be. With fees and taxes, we paid $145 and didn't even get a continental breakfast for free. I haven't stayed in a hotel that didn't offer some kind of a breakfast included with your room. The coffee pot in the room is as close as you'll get to breakfast.Just FYI, the continental breakfast was $9.99 (which is yogurt, cereal and fruit) and full Buffett was $12.99. I'd rather stay at the embassy with a 2 hour evening cocktail reception and made to order breakfast included in the price of your room. Not worth it for my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here this past weekend while traveling. We called ahead of time and was given a rate of $117. When we showed up an hour later, which was midnight, we were given a rate of $129.00. We asked about a AAA discount which they granted but didn't apply it to our bill. I guess the later you check in, the more expensive the rate will be. With fees and taxes, we paid $145 and didn't even get a continental breakfast for free. I haven't stayed in a hotel that didn't offer some kind of a breakfast included with your room. The coffee pot in the room is as close as you'll get to breakfast.Just FYI, the continental breakfast was $9.99 (which is yogurt, cereal and fruit) and full Buffett was $12.99. I'd rather stay at the embassy with a 2 hour evening cocktail reception and made to order breakfast included in the price of your room. Not worth it for my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r245431639-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>245431639</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>One of the best Holiday Inns EVER!</t>
+  </si>
+  <si>
+    <t>I have spent the night in a TON of Holiday Inns and this has to be one of the best. First the location is terrific, close to a lot of great restaurants The hotel has a breakfast restaurant downstairs and a steakhouse upstairs. Also It is really close to Costco. I live in a town without a Costco so, this is a big advantage. Also It's not far from Denver's newest addition TRADER JOE'S! Also the room was clean quiet and comfortable. The check in/out was super fast and the staff top notch. I'll be back when I'm staying in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>I have spent the night in a TON of Holiday Inns and this has to be one of the best. First the location is terrific, close to a lot of great restaurants The hotel has a breakfast restaurant downstairs and a steakhouse upstairs. Also It is really close to Costco. I live in a town without a Costco so, this is a big advantage. Also It's not far from Denver's newest addition TRADER JOE'S! Also the room was clean quiet and comfortable. The check in/out was super fast and the staff top notch. I'll be back when I'm staying in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r242726109-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>242726109</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Very slow internet</t>
+  </si>
+  <si>
+    <t>It is a nice and clean hotel however I was disappointed that there was no fridge or microwave in the room, Internet was veeeeeery slow and TV has only a handful of channels. They dont have free breakfast but there is a morning buffet for 12 bucks. There is a nice restaurant in the hotel but it is pretty pricey</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r240427666-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>240427666</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very nice. Seems fairly new and the decor is modern. The bathroom is great with an up to date massaging shower head. The area around the hotel is also convenient to many nice restaurants that should suit most tastes. They are all within walking distance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r229964481-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>229964481</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Comfortabe-easy access to the airport</t>
+  </si>
+  <si>
+    <t>We statyed here the night before we flew out of Denver. The hotel is right off of 470 and an easy 20 minute drive to the Denver airport. The staff were friendly and accommodating, the rooms clean and comfortable. What more could you ask for?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>We statyed here the night before we flew out of Denver. The hotel is right off of 470 and an easy 20 minute drive to the Denver airport. The staff were friendly and accommodating, the rooms clean and comfortable. What more could you ask for?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r227335891-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>227335891</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>My first visit to Parker</t>
+  </si>
+  <si>
+    <t>I had the good fortune to pick the Holiday Inn when staying in Parker, the staff were very helpful and pleasant especially Trisha in the breakfast restaurant and Andrea on front desk, it is people that make all the difference. The hot tub and pool were great after an busy day and Trappers Chop House was excellent standard of service and the food and wine was of a very high standard, the oysters were probably the best I have ever had as was the rib-eyeand I have had lots all over the world.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the good fortune to pick the Holiday Inn when staying in Parker, the staff were very helpful and pleasant especially Trisha in the breakfast restaurant and Andrea on front desk, it is people that make all the difference. The hot tub and pool were great after an busy day and Trappers Chop House was excellent standard of service and the food and wine was of a very high standard, the oysters were probably the best I have ever had as was the rib-eyeand I have had lots all over the world.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r226446297-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>226446297</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Room was nice..........but</t>
+  </si>
+  <si>
+    <t>I'll start off good......Nice Hotel, clean, spacious room, more than enough to eat within walking distance and an on site restaurant.  The bed....ehhhhh at best.  So, for me, it was OK. 
+It was a long long day.  One appt canceled on me so I was running ahead on time.  Since I traveled and stopped in half the US in the last 24 hours, I was ready to crash.   I called HI to ask if I could check in a tad early.  I was transferred to reservations, I asked again and they were transferring me to the front desk, after telling me they have more than enough rooms open.   She transferred me to the front desk and I got a recording that the number had been disconnected ( ??????).   Well, I got there and took a shot in the dark.
+I couldn't get in a room early. My perception is, not much of an attempt was given.  I was told to drive around until 3:00.  ( like I know Parker CO).  When I came back, another front desk person was there.
+It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,...I'll start off good......Nice Hotel, clean, spacious room, more than enough to eat within walking distance and an on site restaurant.  The bed....ehhhhh at best.  So, for me, it was OK. It was a long long day.  One appt canceled on me so I was running ahead on time.  Since I traveled and stopped in half the US in the last 24 hours, I was ready to crash.   I called HI to ask if I could check in a tad early.  I was transferred to reservations, I asked again and they were transferring me to the front desk, after telling me they have more than enough rooms open.   She transferred me to the front desk and I got a recording that the number had been disconnected ( ??????).   Well, I got there and took a shot in the dark.I couldn't get in a room early. My perception is, not much of an attempt was given.  I was told to drive around until 3:00.  ( like I know Parker CO).  When I came back, another front desk person was there.It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,  in the restaurant as I did at the front desk. I did keep my little gold coin though.We have a saying down south.   "He still works here, but he quit 3 years ago"  That's the best description I can come up with for this stay.  For $140 a night.....nope, you aren't doing me any favors.   Time for a Dale Carnegie Course?????But like I said, nice hotel, nice room....slow inter-web, but that's hotel life.I'll be back this month, I'll try it again......If it doesn't work out.....I'll start building my points at Hampton..MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>I'll start off good......Nice Hotel, clean, spacious room, more than enough to eat within walking distance and an on site restaurant.  The bed....ehhhhh at best.  So, for me, it was OK. 
+It was a long long day.  One appt canceled on me so I was running ahead on time.  Since I traveled and stopped in half the US in the last 24 hours, I was ready to crash.   I called HI to ask if I could check in a tad early.  I was transferred to reservations, I asked again and they were transferring me to the front desk, after telling me they have more than enough rooms open.   She transferred me to the front desk and I got a recording that the number had been disconnected ( ??????).   Well, I got there and took a shot in the dark.
+I couldn't get in a room early. My perception is, not much of an attempt was given.  I was told to drive around until 3:00.  ( like I know Parker CO).  When I came back, another front desk person was there.
+It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,...I'll start off good......Nice Hotel, clean, spacious room, more than enough to eat within walking distance and an on site restaurant.  The bed....ehhhhh at best.  So, for me, it was OK. It was a long long day.  One appt canceled on me so I was running ahead on time.  Since I traveled and stopped in half the US in the last 24 hours, I was ready to crash.   I called HI to ask if I could check in a tad early.  I was transferred to reservations, I asked again and they were transferring me to the front desk, after telling me they have more than enough rooms open.   She transferred me to the front desk and I got a recording that the number had been disconnected ( ??????).   Well, I got there and took a shot in the dark.I couldn't get in a room early. My perception is, not much of an attempt was given.  I was told to drive around until 3:00.  ( like I know Parker CO).  When I came back, another front desk person was there.It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,  in the restaurant as I did at the front desk. I did keep my little gold coin though.We have a saying down south.   "He still works here, but he quit 3 years ago"  That's the best description I can come up with for this stay.  For $140 a night.....nope, you aren't doing me any favors.   Time for a Dale Carnegie Course?????But like I said, nice hotel, nice room....slow inter-web, but that's hotel life.I'll be back this month, I'll try it again......If it doesn't work out.....I'll start building my points at Hampton..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r205595709-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>205595709</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Our stay was great!</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this Holiday Inn. The service was fantastic and the hotel restaurant was one of the best we have ever eaten at. The rooms are clean and the hotel is kept up well. We will be back if in Parker again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2014</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this Holiday Inn. The service was fantastic and the hotel restaurant was one of the best we have ever eaten at. The rooms are clean and the hotel is kept up well. We will be back if in Parker again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r204506630-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>204506630</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Great clean rooms awesome service</t>
+  </si>
+  <si>
+    <t>I'm currently staying here on business and it's fantastic.Very clean and well maintained. And the tappers restaurant is good as well.I got the king bed and it has a nice couch tv and nice bathroomIt also comes with Ethernet connection for your devicesMoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>I'm currently staying here on business and it's fantastic.Very clean and well maintained. And the tappers restaurant is good as well.I got the king bed and it has a nice couch tv and nice bathroomIt also comes with Ethernet connection for your devicesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r189765808-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>189765808</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Best hotel in parker but still rates 3 stars.</t>
+  </si>
+  <si>
+    <t>If you are going to stay in Parker, Colorado, then you should stay at the Holiday Inn. It has one of the better restaurants in Parker, Trapper's. This restaurant is expensive for Parker; expect to pay around $30 per person. The hotel itself is more attractive than the typical Holiday Inn and the rooms are modern and the beds comfortable. The housekeeping staff entered the room while my sister was sleeping and continued to clean, which I found ridiculous. Other than that, I recommend this hotel if you need to stay in Parker. If not, check out hotels in the Denver Tech Center, not too far from Parker. Please note, Parker is *not* a place to stay if you want to stay in Denver. It is about 30 minutes to downtown, with moderate traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>If you are going to stay in Parker, Colorado, then you should stay at the Holiday Inn. It has one of the better restaurants in Parker, Trapper's. This restaurant is expensive for Parker; expect to pay around $30 per person. The hotel itself is more attractive than the typical Holiday Inn and the rooms are modern and the beds comfortable. The housekeeping staff entered the room while my sister was sleeping and continued to clean, which I found ridiculous. Other than that, I recommend this hotel if you need to stay in Parker. If not, check out hotels in the Denver Tech Center, not too far from Parker. Please note, Parker is *not* a place to stay if you want to stay in Denver. It is about 30 minutes to downtown, with moderate traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r181502086-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>181502086</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>This location is nice and clean. The Jacuzzi tub suites are awesome. The steak house is superb (but expensive). There are other places to eat and a convenience store within walking distance. It's right off of C-470, which take you to all the major interstates. The area is quiet, safe and suburban. My only complaint is that they charge for breakfast &amp; the price of their rooms is already a bit high for the area. The HI Englewood (just a few mile away) is $50 a night cheaper and includes breakfast.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r180867788-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>180867788</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>A good short stay</t>
+  </si>
+  <si>
+    <t>I needed a place for two nights before we closed on our house in Parker. Overall it was a good stay, clean, friendly and attentive staff,  plenty of room, and no road noise from 470. Best thing about the stay is the $10 coin they gave me for the steak house on the 4th floor. Some of the best steak I've had in a while. If you have business in Denver Tech Center, it's about 20-30 min drive so a reasonable alternative.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r174905132-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>174905132</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Really Happy</t>
+  </si>
+  <si>
+    <t>This is a very nice property, well maintained and great staff.  The rooms are very nice and it is in a relatively quiet area but easily accessible and also close to many stores and shops.  The food in the on-site restaurant is wonderful.  It did get a little warm during the night and others had noted that in their reviews.  With temps over 100 we had our fan with us.  (I think they use motion detection thermostats?).  I would stay here again, anytime.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r164480841-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>164480841</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great choice in the Centennial area</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel late and Tony at the front desk was awesome. The rooms are clean. Wifi is fast. Bed is comfortable. Shower is great breakfast is great compared with Hampton courtyard etc. and the price I paid was half the others. Highly recommend especially if you are visiting the Centennial area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r162144234-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>162144234</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Chose this hotel for a Memorial Day weekend getaway.  Price was decent and they have a restaurant inside the hotel.  Room service was fast and pleasant.  Staff nice, rooms clean.  Pillows need upgrading.  Noise level fine and we were right by the elevator and ice machine.  The hallways were quite warm, not sure if they just haven't fired up the A/C yet (May).  3 other restaurants within walking distance if you get bored of the hotel restaurant (which is very nice).  Overall, a good stay.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r162057233-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>162057233</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Pretty good place</t>
+  </si>
+  <si>
+    <t>I  visit Parker on business at least 5 times a year. I like this hotel for several reasons.  First, it's across the street from a large Lifetime Fitness.  Typically if you go in the morning, and you tell them you are staying at the Holiday Inn, the let you in for free.  Sometimes they make you pay $15 but its a great gym!  I also like the restaurant, Trappers.  They have a good room service menu if you dont feel like going to the restaurant. Finally, if you are looking to get out of the hotel, there are a few restaurants in walking distance.  The other option is the Hilton Garden Inn but the don't have a restaurant and its a bit further down the road from the gym and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>I  visit Parker on business at least 5 times a year. I like this hotel for several reasons.  First, it's across the street from a large Lifetime Fitness.  Typically if you go in the morning, and you tell them you are staying at the Holiday Inn, the let you in for free.  Sometimes they make you pay $15 but its a great gym!  I also like the restaurant, Trappers.  They have a good room service menu if you dont feel like going to the restaurant. Finally, if you are looking to get out of the hotel, there are a few restaurants in walking distance.  The other option is the Hilton Garden Inn but the don't have a restaurant and its a bit further down the road from the gym and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r141057750-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>141057750</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Good experience but needs fine tuning</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel for 7 days.  The rooms were clean but lighting needs to be improved.  Location and parking was great.  The only main complaint was I ordered this stay through an Internet service and i got an upgrade EXecutive room ($15 per day additional charge).  All I got was coupons for breakfast (worth $10) which at most other hotels the same breakfast is complimentary.  My executive room came with no refrigerator and no microwave.  The staff said an executive room is considered a standard room.  What's the rooms called with a refrigerator and microwave?  Presidential suites! I complained three times to no avail.  Fine....you got me this time.The last comment is for the personnel staff at the Hotel.  It seems the staff was not excited to greet their guest in the hotel. There was only one employee (resturaunt) that said good morning and have a good day everyone else looked the other way and did not say anything; which I thought was odd.  Manager...... I hope your reading this review.  You need to work on your staffs professionalism in greeting your guest at all times. It seemed that they did not appreciate my business.  Two other guest commented about this behavior.  I have only written one other review in my life.  But I thought the management needed to know what they need to improve on with their employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel for 7 days.  The rooms were clean but lighting needs to be improved.  Location and parking was great.  The only main complaint was I ordered this stay through an Internet service and i got an upgrade EXecutive room ($15 per day additional charge).  All I got was coupons for breakfast (worth $10) which at most other hotels the same breakfast is complimentary.  My executive room came with no refrigerator and no microwave.  The staff said an executive room is considered a standard room.  What's the rooms called with a refrigerator and microwave?  Presidential suites! I complained three times to no avail.  Fine....you got me this time.The last comment is for the personnel staff at the Hotel.  It seems the staff was not excited to greet their guest in the hotel. There was only one employee (resturaunt) that said good morning and have a good day everyone else looked the other way and did not say anything; which I thought was odd.  Manager...... I hope your reading this review.  You need to work on your staffs professionalism in greeting your guest at all times. It seemed that they did not appreciate my business.  Two other guest commented about this behavior.  I have only written one other review in my life.  But I thought the management needed to know what they need to improve on with their employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r140431220-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>140431220</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Good Night's Sleep...Horrible Breakfast</t>
+  </si>
+  <si>
+    <t>The Holiday Inn was nicely appointed in the lobby and guest rooms that appeared to be recently renovated.  The bed was comfortable, and guests had both soft and firm pillows to provide a customized sleep experience.Good sized bathroom with a nice shower that was never without hot water.The in-house restaurant/bar/lounge was nice and the food was great!  (See my review of Trapper's Chop House for more info.)The only complaint I have is about JP's, the breakfast area.  Many of the plates/bowls on the buffet were dirty.  The eggs were like eating a sponge.  I had a piece of wheat toast with an individual package of peanut butter, and one of both of those foods had a metallic or chemical taste to them (I only ate two bites).  An individual packet of honey was rock solid.  A box of Fruit Loops was stale.  A small carton of milk had chunks in it (not sure if it was ice chips or curdled, but it wasn't appetizing).  Bottom line:  Just say 'no' to JPs.  Get breakfast elsewhere or skip it altogether.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>The Holiday Inn was nicely appointed in the lobby and guest rooms that appeared to be recently renovated.  The bed was comfortable, and guests had both soft and firm pillows to provide a customized sleep experience.Good sized bathroom with a nice shower that was never without hot water.The in-house restaurant/bar/lounge was nice and the food was great!  (See my review of Trapper's Chop House for more info.)The only complaint I have is about JP's, the breakfast area.  Many of the plates/bowls on the buffet were dirty.  The eggs were like eating a sponge.  I had a piece of wheat toast with an individual package of peanut butter, and one of both of those foods had a metallic or chemical taste to them (I only ate two bites).  An individual packet of honey was rock solid.  A box of Fruit Loops was stale.  A small carton of milk had chunks in it (not sure if it was ice chips or curdled, but it wasn't appetizing).  Bottom line:  Just say 'no' to JPs.  Get breakfast elsewhere or skip it altogether.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r134587946-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>134587946</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Over priced</t>
+  </si>
+  <si>
+    <t>Stayed on the second floor could have sworn they had the heater going on full blast in the hallway. No refrigerator. Room didn't have a shower curtain but once brought to attention they were very quick to handle. A/C in the room wasn't very efficient had to have them reset the breaker each night before bed. The doors also close very quickly made me incredibly nervous with my little ones fingers. However the staff was great and quick to do what they could. Still not worth the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2012</t>
+  </si>
+  <si>
+    <t>Stayed on the second floor could have sworn they had the heater going on full blast in the hallway. No refrigerator. Room didn't have a shower curtain but once brought to attention they were very quick to handle. A/C in the room wasn't very efficient had to have them reset the breaker each night before bed. The doors also close very quickly made me incredibly nervous with my little ones fingers. However the staff was great and quick to do what they could. Still not worth the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r118864159-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>118864159</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>Stayed for Three Nights and thoroughly Enjoyed it.</t>
+  </si>
+  <si>
+    <t>Normally stay with another Hotel Chain, and were pleasantly surprised by our stay at the Parker Holiday Inn.The Front desk staff were very efficient and helpful.The morning breakfast staff put of a delightful spread.The rooms were clean and roomy, we were on the 4th Floor.We would not hesitate to stay here again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r116923993-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>116923993</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>New but not up to date</t>
+  </si>
+  <si>
+    <t>Well where do I began...? How does a hotel that looks so nice be so poor? The wifi is only attainable in certain areas of the hotel, close to the main lobby, and it is terribly slow. I was there for a few days, and always found myself being disturbed by the house keeping. They were nice but clean very late. I was there for a few days and would sometimes have leftovers, well they all had to be trashed because the place doesn't have refrigerators in the room. I didn't realize it was 1876. To make matters worse, the ice machine didn't work so that wasn't an option to keep the food cold. Very poor establishment. The fitness room was decent but not enough to make me EVER want ti stay in this hotel, maybe even not another holiday inn express.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Well where do I began...? How does a hotel that looks so nice be so poor? The wifi is only attainable in certain areas of the hotel, close to the main lobby, and it is terribly slow. I was there for a few days, and always found myself being disturbed by the house keeping. They were nice but clean very late. I was there for a few days and would sometimes have leftovers, well they all had to be trashed because the place doesn't have refrigerators in the room. I didn't realize it was 1876. To make matters worse, the ice machine didn't work so that wasn't an option to keep the food cold. Very poor establishment. The fitness room was decent but not enough to make me EVER want ti stay in this hotel, maybe even not another holiday inn express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r116923992-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>116923992</t>
+  </si>
+  <si>
+    <t>Wouldn't stay again on own free will, only stayed because business was paying</t>
+  </si>
+  <si>
+    <t>Stayed for extended period of time...Floors had red, sticky stuff everywhere- didn't want to take off my socks/shoesInternet is below satisfactory, some floors you cannot access wirelessNo refrigerators or microwaves in rooms, unless you pay for "upgrade"Hotel restaurant was outrageously priced, not a "hang out, wind down" atmosphereHousekeeping shut cord in nightstand drawer and nearly cut in half...Ice maker on floor did not work for 2 weeks, next floor was out of ice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r52973211-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>52973211</t>
+  </si>
+  <si>
+    <t>01/08/2010</t>
+  </si>
+  <si>
+    <t>Worst Customer Service</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel around 8:00pm.  The welcome to the hotel by the clerk was lackluster and there was a loud party going on in the lobby.  We ushered the kids upstairs to bed, but could still hear the noise.  We were on the second floor.  Partiers spoke loudly in the hallways and slammed doors to their rooms as we tried to sleep.  Called the front desk, but nothing was done.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r51458425-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>51458425</t>
+  </si>
+  <si>
+    <t>12/18/2009</t>
+  </si>
+  <si>
+    <t>Great hotel for a Holiday Inn</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here one night over the Thanksgiving holiday. It was a fine hotel. New interior, clean, well-appointed rooms (for a Holiday Inn), and a friendly person at the front desk. The rooms were decorated in a new, modern style, and the bathroom was great. The pool and hot tub area were also nice. There's not much to see in Parker, but if you need a place to sleep while you're in town, this place will probably fit the bill. And although we did not check out the restaurant/bar, they did give us a free $10 off coupon at the check in, and the place seemed to offer great happy hour deals.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here one night over the Thanksgiving holiday. It was a fine hotel. New interior, clean, well-appointed rooms (for a Holiday Inn), and a friendly person at the front desk. The rooms were decorated in a new, modern style, and the bathroom was great. The pool and hot tub area were also nice. There's not much to see in Parker, but if you need a place to sleep while you're in town, this place will probably fit the bill. And although we did not check out the restaurant/bar, they did give us a free $10 off coupon at the check in, and the place seemed to offer great happy hour deals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r41174336-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>41174336</t>
+  </si>
+  <si>
+    <t>09/12/2009</t>
+  </si>
+  <si>
+    <t>I wouldnt stay here again</t>
+  </si>
+  <si>
+    <t>I travel alot and this hotel ranks toward the bottom of Holiday Inns. The bathrooms are so dark you cannnot see your face to shave or apply make-up, and it appears they use night lights to light the bathroom. When I called the front desk they said others complained but nothing is being done. There is only one lamp on one side of the bed. So if there are two of you, only one person can read. The same dim lights are in the other light fixutres.  The hotel rooms are dated. Otherwise the mattress is comfortable and it was clean. The bathroom is also nice.  However, this is not the Holiday Inn that I have come to know and would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel alot and this hotel ranks toward the bottom of Holiday Inns. The bathrooms are so dark you cannnot see your face to shave or apply make-up, and it appears they use night lights to light the bathroom. When I called the front desk they said others complained but nothing is being done. There is only one lamp on one side of the bed. So if there are two of you, only one person can read. The same dim lights are in the other light fixutres.  The hotel rooms are dated. Otherwise the mattress is comfortable and it was clean. The bathroom is also nice.  However, this is not the Holiday Inn that I have come to know and would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r14792883-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>14792883</t>
+  </si>
+  <si>
+    <t>04/04/2008</t>
+  </si>
+  <si>
+    <t>Loved this Hotel</t>
+  </si>
+  <si>
+    <t>Just came back from aweek at this Hotel and could not believe how nice it was. I stayed at a Holiday Inn in Montreal two weeks befor and it was nothing close to this place. Staff were all very helpful and friendly the rooms were large and clean.Went for a run on treadmill,used the hot tub and pool,all was very nice.I would stay there again if I ever go back to Denver.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r13507260-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>13507260</t>
+  </si>
+  <si>
+    <t>02/12/2008</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>Nice hotel in great area!</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r6902899-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>6902899</t>
+  </si>
+  <si>
+    <t>03/02/2007</t>
+  </si>
+  <si>
+    <t>Well above average</t>
+  </si>
+  <si>
+    <t>I expected the standard, Interstate-side modern motel but was pleasantly surprised.  On check-in, the cheerful, friendly clerk was eager to point out that this was the premier Holiday Inn brand, "Select," and he was right.
+There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.
+The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.
+On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I...I expected the standard, Interstate-side modern motel but was pleasantly surprised.  On check-in, the cheerful, friendly clerk was eager to point out that this was the premier Holiday Inn brand, "Select," and he was right.There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I declined to try this, having viewed the menu in the open fire-warmed reception area.  The steak place next door was a third of the price and wasn't lacking in ambience or quality.  Next door to that is another eatery and just down the street, there's a gas station and mini market (including the ubiquitous drive-thru McD's).My only real problem is the altitude which left me constantly breathless in my 5 night stay, waking often during the night, panting.  I'm going to Parker again in 2 months, however, and will definitely be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I expected the standard, Interstate-side modern motel but was pleasantly surprised.  On check-in, the cheerful, friendly clerk was eager to point out that this was the premier Holiday Inn brand, "Select," and he was right.
+There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.
+The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.
+On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I...I expected the standard, Interstate-side modern motel but was pleasantly surprised.  On check-in, the cheerful, friendly clerk was eager to point out that this was the premier Holiday Inn brand, "Select," and he was right.There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I declined to try this, having viewed the menu in the open fire-warmed reception area.  The steak place next door was a third of the price and wasn't lacking in ambience or quality.  Next door to that is another eatery and just down the street, there's a gas station and mini market (including the ubiquitous drive-thru McD's).My only real problem is the altitude which left me constantly breathless in my 5 night stay, waking often during the night, panting.  I'm going to Parker again in 2 months, however, and will definitely be staying here.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2009,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2041,4430 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>185</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>185</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>235</v>
+      </c>
+      <c r="O31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>265</v>
+      </c>
+      <c r="X34" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="X36" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X37" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>307</v>
+      </c>
+      <c r="X39" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>185</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>185</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>325</v>
+      </c>
+      <c r="X41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>333</v>
+      </c>
+      <c r="X42" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>342</v>
+      </c>
+      <c r="X43" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>351</v>
+      </c>
+      <c r="X44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>185</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>185</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>366</v>
+      </c>
+      <c r="J47" t="s">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>370</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>371</v>
+      </c>
+      <c r="X47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>371</v>
+      </c>
+      <c r="X48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>185</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>386</v>
+      </c>
+      <c r="X49" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>185</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>403</v>
+      </c>
+      <c r="X51" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>412</v>
+      </c>
+      <c r="X52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>431</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" t="s">
+        <v>434</v>
+      </c>
+      <c r="K56" t="s">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>444</v>
+      </c>
+      <c r="J58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s">
+        <v>447</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>449</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>450</v>
+      </c>
+      <c r="J59" t="s">
+        <v>451</v>
+      </c>
+      <c r="K59" t="s">
+        <v>452</v>
+      </c>
+      <c r="L59" t="s">
+        <v>453</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>454</v>
+      </c>
+      <c r="O59" t="s">
+        <v>185</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>456</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>457</v>
+      </c>
+      <c r="J60" t="s">
+        <v>458</v>
+      </c>
+      <c r="K60" t="s">
+        <v>459</v>
+      </c>
+      <c r="L60" t="s">
+        <v>460</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>454</v>
+      </c>
+      <c r="O60" t="s">
+        <v>185</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>461</v>
+      </c>
+      <c r="X60" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>465</v>
+      </c>
+      <c r="J61" t="s">
+        <v>466</v>
+      </c>
+      <c r="K61" t="s">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>469</v>
+      </c>
+      <c r="X61" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>478</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>479</v>
+      </c>
+      <c r="J63" t="s">
+        <v>480</v>
+      </c>
+      <c r="K63" t="s">
+        <v>481</v>
+      </c>
+      <c r="L63" t="s">
+        <v>482</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>483</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+      <c r="K64" t="s">
+        <v>487</v>
+      </c>
+      <c r="L64" t="s">
+        <v>488</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" t="s">
+        <v>185</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>489</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>490</v>
+      </c>
+      <c r="J65" t="s">
+        <v>491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>492</v>
+      </c>
+      <c r="L65" t="s">
+        <v>493</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>494</v>
+      </c>
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>495</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>496</v>
+      </c>
+      <c r="J66" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" t="s">
+        <v>498</v>
+      </c>
+      <c r="L66" t="s">
+        <v>499</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>500</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>504</v>
+      </c>
+      <c r="K67" t="s">
+        <v>505</v>
+      </c>
+      <c r="L67" t="s">
+        <v>506</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>508</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+      <c r="J68" t="s">
+        <v>510</v>
+      </c>
+      <c r="K68" t="s">
+        <v>511</v>
+      </c>
+      <c r="L68" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s">
+        <v>185</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>514</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" t="s">
+        <v>516</v>
+      </c>
+      <c r="K69" t="s">
+        <v>517</v>
+      </c>
+      <c r="L69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>519</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>521</v>
+      </c>
+      <c r="J70" t="s">
+        <v>522</v>
+      </c>
+      <c r="K70" t="s">
+        <v>523</v>
+      </c>
+      <c r="L70" t="s">
+        <v>524</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_129.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="843">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r607686833-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>33591</t>
+  </si>
+  <si>
+    <t>543070</t>
+  </si>
+  <si>
+    <t>607686833</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We used points to stay here.  Check on was smooth. Nice staff. Breakfast was good withany choices.  The lady attending to the breakfast foods was very nice and replenished the food as it ran out. The place is well kept. We will stay here again</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r589089499-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
-    <t>33591</t>
-  </si>
-  <si>
-    <t>543070</t>
-  </si>
-  <si>
     <t>589089499</t>
   </si>
   <si>
@@ -174,15 +195,54 @@
     <t>Beautiful facilities and a very helpful staff. The top floor restaurant was unique and had great views. Our room was very spacious and they were kind and patient with my Son. Lucy at check in provided Great service.  The hotel is on the top of the hill and has some of the best views in that part of Denver.  MoreShow less</t>
   </si>
   <si>
-    <t>Kelsey W, Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Kelsey W, Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
   </si>
   <si>
     <t>Beautiful facilities and a very helpful staff. The top floor restaurant was unique and had great views. Our room was very spacious and they were kind and patient with my Son. Lucy at check in provided Great service.  The hotel is on the top of the hill and has some of the best views in that part of Denver.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r590102028-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>590102028</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Fast and good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The drive through is amazing. They are always so fast it is unreal. The staff are nice always willing to let you have a hot donut. What more can you ask for. Not many Krispy Kream locations around but I love this one. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r589571670-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>589571670</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Exceptional staff</t>
+  </si>
+  <si>
+    <t>I own a business and I would seriously hire a good portion of this staff if I had the chance. I stayed for 6 nights and everyone was always helpful and smiling.  .  The front desk people were super friendly. The room was nice and clean. Hotel is in a great area for restaurants and easy off and on the highway.  I would return!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I own a business and I would seriously hire a good portion of this staff if I had the chance. I stayed for 6 nights and everyone was always helpful and smiling.  .  The front desk people were super friendly. The room was nice and clean. Hotel is in a great area for restaurants and easy off and on the highway.  I would return!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r568966293-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -219,6 +279,48 @@
     <t>Great hotel! It was clean and quiet. Our kids spent a fair amount of time at the pool which also was very clean.  The restaurant/bar on the top level was wonderful with specialty cocktails. Highly recommend.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r546304432-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>546304432</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Great as Always!!!!</t>
+  </si>
+  <si>
+    <t>Nice place last minute reservation for business tripStaff was nice and welcoming and fast to check me in..Hotel was nice and cleanRoom was nice and updatedCon’s:No Free Breakfast.... you have to order from a menu or add that to the cost of the room.. There is free coffee so there’s that..There is a restaurant on the 4th floor but is super expensive in my opinion and I didn’t even try to see what the drinks cost... Luckily there is several options within walking distance from the hotel. If you r gonna have a restaurant in your hotel at least you can do is offer a discount to keep people at your hotel...  Just my 2 cents. If there was I wasn’t told about it Otherwise nice place as always IHGMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nice place last minute reservation for business tripStaff was nice and welcoming and fast to check me in..Hotel was nice and cleanRoom was nice and updatedCon’s:No Free Breakfast.... you have to order from a menu or add that to the cost of the room.. There is free coffee so there’s that..There is a restaurant on the 4th floor but is super expensive in my opinion and I didn’t even try to see what the drinks cost... Luckily there is several options within walking distance from the hotel. If you r gonna have a restaurant in your hotel at least you can do is offer a discount to keep people at your hotel...  Just my 2 cents. If there was I wasn’t told about it Otherwise nice place as always IHGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r536689574-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>536689574</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Modern and Well Maintained</t>
+  </si>
+  <si>
+    <t>I found this to be a nice place to stay on a snowy evening. Usually I would eat out but they gave me a $10 discount on their restaurant. It was much better than at a usual Holiday Inn. I also had breakfast there and It was very good and covered by the room rate. The room was standard but met my needs. The staff was friendly and efficient.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r535807502-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -234,9 +336,6 @@
     <t>We were given the hotel info by someone for a wedding.  I'm sure she spent a lot of time and effort locating a hotel that was right for her guests.   We were told to contact "Jimmy" for rates etc but he never returned my calls.  I called again and was told "Jimmy" no longer worked there so I left messages for the new person (Kenny, I think his name was).  Again, no return calls.  Not knowing the area or what the bride may have had planned, we booked anyway - even though we didn't get the negotiated rate (others had similar problems).  The hotel was pretty on the outside and in a nice location - the room quiet, pillows comfy, staff (that we were able to talk to) fairly friendly.  The room was clean for the most part but the carpeting was stained and needed to be cleaned.  Also, the sheer on the window was badly torn.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -267,9 +366,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded October 24, 2017</t>
   </si>
   <si>
@@ -294,6 +390,48 @@
     <t>Customer Service is the BEST at this hotel.  Treated like royalty.  I have never, in all my travels for 50 years, found a better hotel that concentrates on customer needs and comfort!!!  The room was clean and beautiful.  Pool and hot tub just the right temp.  Food great and what a view from the restaurant!!!  Thank you Pema and management - you are the real deal!!!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r524824166-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>524824166</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Perfectly acceptable for a layover</t>
+  </si>
+  <si>
+    <t>Stayed here after a late flight into Denver mainly because of its proximity to the I70 and my onward travel plans the next day.   Easy to find - it has a spacious free car park.   I was seen quickly and very efficiently by Kelsey on the front desk - who was very pleasant and professional.   She offered me a $10 off coin for Trappers (the in house restaurant) which I took and used!  See a separate review for that experience (spoilers - it was very good).The room was what you'd expect from a hotel of this type.  Two queen beds (very comfortable) and plenty of space.   Free coffee, fridge and microwave.  Decor a bit tired - but I hadn't paid for The Ritz so I shouldn't really expect it!Bathroom in good nick - all clean.  Loads of towels too.I booked in advance on the HI website and paid about $115.  That's about right for what I got.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here after a late flight into Denver mainly because of its proximity to the I70 and my onward travel plans the next day.   Easy to find - it has a spacious free car park.   I was seen quickly and very efficiently by Kelsey on the front desk - who was very pleasant and professional.   She offered me a $10 off coin for Trappers (the in house restaurant) which I took and used!  See a separate review for that experience (spoilers - it was very good).The room was what you'd expect from a hotel of this type.  Two queen beds (very comfortable) and plenty of space.   Free coffee, fridge and microwave.  Decor a bit tired - but I hadn't paid for The Ritz so I shouldn't really expect it!Bathroom in good nick - all clean.  Loads of towels too.I booked in advance on the HI website and paid about $115.  That's about right for what I got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r522053936-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>522053936</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>A great Hotel for a business stay</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 weeks on business.  Im not exactly sure the room rate, but they were nice and clean.  The pool and Exercise facilities are very well maintained.  They have a restaurant onsite.  The food is very good, but a bit pricey.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r519936603-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -309,9 +447,6 @@
     <t>This is an almost brand new hotel near the Denver airport.  I only stayed here for a night to sleep before my flight the next morning.  Felt it was very overpriced at $150/night.  Nothing special about it, although it was clean and quiet.  This hotel is within easy distance to restaurants and shopping in the cute town of Parker.  It's a nice alternative to the hotels that are "airport" hotels.  Otherwise, i would not stay there again.</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r517701259-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -351,7 +486,52 @@
     <t>New facility. Clean and comfortable. Very friendly front desk staff. Has a full service restaurant and lounge. Not cheap lodging, but very nice. Looks like plenty of parking. Easy access to Aurora and East Denver.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r507116016-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>507116016</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>The BEST Holiday Inn- EVER!</t>
+  </si>
+  <si>
+    <t>Extremely clean, very neat, friendly staff, and incredible views from the restaurant at the 4th floor. This made our first trip to Denver so wonderful. We loved the room, amenities, and overall location.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r504075293-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>504075293</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>NEED TO SLEEP? STAY ELSEWHERE!</t>
+  </si>
+  <si>
+    <t>I don't think I have ever written a review, but I am strongly compelled to share my experience with other business travelers looking to get a good night sleep so you too don't fall victim.  After starting my day at 4:00 am EST to catch the early bird flight out to Denver and working a full 12+ hour day (we have all been there) all I wanted to do was come back to the room and sleep.
+Initially I was very pleased with the hotel (i.e. location, onsite restaurant, cleanliness, and price), then at 3:00 am EST, I was awoken by loud conversation.  It was so loud I thought I was coming from the hallway, so I opened the door to ask them to quiet down.  However, the hallway was empty and I was somewhat confused because I could still hear the noise.  That is when I realized it was coming from the room below.
+Only staying one night, I packed my bag and went downstairs to request another room.  But, just like in any Murphy's law situation, I was informed they were "fully booked" and there was nothing they could do, despite half of the hotel parking lot being empty, which led me back upstairs to write this review.  So here I am, exhausted and being forced to participate as a unwilling third-party to the conversations from the floor below, waiting for them to go to sleep.
+I hope...I don't think I have ever written a review, but I am strongly compelled to share my experience with other business travelers looking to get a good night sleep so you too don't fall victim.  After starting my day at 4:00 am EST to catch the early bird flight out to Denver and working a full 12+ hour day (we have all been there) all I wanted to do was come back to the room and sleep.Initially I was very pleased with the hotel (i.e. location, onsite restaurant, cleanliness, and price), then at 3:00 am EST, I was awoken by loud conversation.  It was so loud I thought I was coming from the hallway, so I opened the door to ask them to quiet down.  However, the hallway was empty and I was somewhat confused because I could still hear the noise.  That is when I realized it was coming from the room below.Only staying one night, I packed my bag and went downstairs to request another room.  But, just like in any Murphy's law situation, I was informed they were "fully booked" and there was nothing they could do, despite half of the hotel parking lot being empty, which led me back upstairs to write this review.  So here I am, exhausted and being forced to participate as a unwilling third-party to the conversations from the floor below, waiting for them to go to sleep.I hope this post is helpful for other business travelers because when we can't be at our personal home to sleep, we want the next best thing and this hotel is not it!Nevertheless, I anticipate a manager or hired consulting firm to respond to this post (as many do) and try to excuse away the issue as a one off, but do not be fooled!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>I don't think I have ever written a review, but I am strongly compelled to share my experience with other business travelers looking to get a good night sleep so you too don't fall victim.  After starting my day at 4:00 am EST to catch the early bird flight out to Denver and working a full 12+ hour day (we have all been there) all I wanted to do was come back to the room and sleep.
+Initially I was very pleased with the hotel (i.e. location, onsite restaurant, cleanliness, and price), then at 3:00 am EST, I was awoken by loud conversation.  It was so loud I thought I was coming from the hallway, so I opened the door to ask them to quiet down.  However, the hallway was empty and I was somewhat confused because I could still hear the noise.  That is when I realized it was coming from the room below.
+Only staying one night, I packed my bag and went downstairs to request another room.  But, just like in any Murphy's law situation, I was informed they were "fully booked" and there was nothing they could do, despite half of the hotel parking lot being empty, which led me back upstairs to write this review.  So here I am, exhausted and being forced to participate as a unwilling third-party to the conversations from the floor below, waiting for them to go to sleep.
+I hope...I don't think I have ever written a review, but I am strongly compelled to share my experience with other business travelers looking to get a good night sleep so you too don't fall victim.  After starting my day at 4:00 am EST to catch the early bird flight out to Denver and working a full 12+ hour day (we have all been there) all I wanted to do was come back to the room and sleep.Initially I was very pleased with the hotel (i.e. location, onsite restaurant, cleanliness, and price), then at 3:00 am EST, I was awoken by loud conversation.  It was so loud I thought I was coming from the hallway, so I opened the door to ask them to quiet down.  However, the hallway was empty and I was somewhat confused because I could still hear the noise.  That is when I realized it was coming from the room below.Only staying one night, I packed my bag and went downstairs to request another room.  But, just like in any Murphy's law situation, I was informed they were "fully booked" and there was nothing they could do, despite half of the hotel parking lot being empty, which led me back upstairs to write this review.  So here I am, exhausted and being forced to participate as a unwilling third-party to the conversations from the floor below, waiting for them to go to sleep.I hope this post is helpful for other business travelers because when we can't be at our personal home to sleep, we want the next best thing and this hotel is not it!Nevertheless, I anticipate a manager or hired consulting firm to respond to this post (as many do) and try to excuse away the issue as a one off, but do not be fooled!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r501445317-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
@@ -369,9 +549,6 @@
     <t>This is a nice hotel with a good view of Parker. It's conveniently located off of East 470. Our room was nicely accessorized with appropriate amenities. It has a pool and gym. Easy parking that's free.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r501048379-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -403,6 +580,48 @@
   </si>
   <si>
     <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r492559593-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>492559593</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Convenient and affordable</t>
+  </si>
+  <si>
+    <t>With family close by in Parker this particular Holiday Inn was ideally situated for our purposes. It's new, well-appointed with large rooms and ample amenities. After doing the pre-requisite search for lodging in the area, I found this facility surprisingly affordable, especially if you're an IHG member. We took advantage of the $10 breakfast offer and were not disappointed. I was also pleased to find the hotel only about a mile from the Cherry Creek recreation trail which made it very convenient for a morning bike ride. A huge Lifestyle Fitness is right across the street. Nice find at a good price.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r492275256-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>492275256</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>👎🏼</t>
+  </si>
+  <si>
+    <t>Where do I start? I've never submitted a bad review as I try to only submit the positives but couldn't let this one go. First of all, it was the only hotel with availability in Parker. We stayed at Hampton (which we love) few nights before and had to move not planning to stay another night. Needs updating. Breakfast was not near as good as a lot of complimentary offered by others and got charged for it. My husband paid, she left him the wrong amount of change, left and was nowhere to be found. Housekeeping knocked and barged in when I had the do not disturb on the door . And we woke up to our Cadillac keyed all down passenger side. Although.... I will be giving the hotel restaurant Trappers a 5 star review! We are visiting for the horse show took and big group of girls to dinner. It was fabulous!! The talented pianist was a very nice touch as well!  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Where do I start? I've never submitted a bad review as I try to only submit the positives but couldn't let this one go. First of all, it was the only hotel with availability in Parker. We stayed at Hampton (which we love) few nights before and had to move not planning to stay another night. Needs updating. Breakfast was not near as good as a lot of complimentary offered by others and got charged for it. My husband paid, she left him the wrong amount of change, left and was nowhere to be found. Housekeeping knocked and barged in when I had the do not disturb on the door . And we woke up to our Cadillac keyed all down passenger side. Although.... I will be giving the hotel restaurant Trappers a 5 star review! We are visiting for the horse show took and big group of girls to dinner. It was fabulous!! The talented pianist was a very nice touch as well!  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r490714585-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
@@ -478,6 +697,53 @@
     <t>We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had...We stayed in one of the two bed suites with the pull out sofa.  The room was very clean and comfortable!  The beds were also comfortable and they had good pillows too!  Even the shower was great!  First of all we were only staying here, it's near our hometown, because we were having some remodeling done in our house. We came with an attitude because it was an "inconvenience" to have to leave our home; however, what we experienced at this holiday Inn &amp; Suites was more like a mini- vacation for our family!  The hotel is very clean and the staff went above expectations for our family.  We were taken care of on several occasions by desk staff associates, Lauren and Sarah.  They accommodated us with an early arrival since we had to be out of our home, we were traveling with our dog, and then they also gave us a late check out too!!  When we needed extra blankets and towels they brought those to our room very promptly!  This hotel does not offer a free breakfast but that was no problem; there is a restaurant in the hotel which we did not try but there are also several food options close by, even within walking distance.  The pool and hot tub were extremely well kept up, clean, and a wonderful place to relax.  They even had a exercise room that looked very well equipped.  Since we had three kids with us we took them to an outdoor amusement area that is right across the highway from this hotel, it is called Boondocks and it offers all kinds of activities from Go Carts, Laser Tag, Bumper Boats, and Mini Golf. The hotel is in a good location with many entertainment options close by.  We truly enjoyed our stay at this Holiday Inn.  Thanks again to Lauren and Sarah who were always more than happy to help!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r485246251-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>485246251</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>There are things that I expect ALL hotels to have; clean rooms, comfortable bed, friendly staff, etc. if you miss any of these you automatically score a "1 star".  This hotel had all of those "must haves".
+I rate hotels based on 4 things that they often miss. These are the things that go from middle of the road (3 stars), to a delightful experience.  1) good in room coffee, 2) a good shower 3) ample bathroom light, 4) sound proof room.
+1) Coffee- this hotel has a Keurig in room, which is a bonus, and although I had 1 regular POD, and 2 decaf PODs ( should have been the other way around), and I only had 1 baggie of cream/sugar/stirrers. Also instead of ceramic mugs, had styrofoam cups, with lids.   Overall= 3 stars (Adequate, but not a delighted experience). Im sure If I had contacted management, they would have brought me some, but I shouldn't need to do so. 
+2) good shower- I have thick hair and need strong water pressure, to rise it.  They had a shower head that was adjustable, for various water pressures, and plenty of hot water that arrived quickly. Here the hotel scores 5 stars.
+3) Bathroom light. This one, many hotels miss. You would think that if 50% of guests are women, they would have adequate light to apply makeup. However, evidently a man designed these bathrooms, and instead of bright light,...There are things that I expect ALL hotels to have; clean rooms, comfortable bed, friendly staff, etc. if you miss any of these you automatically score a "1 star".  This hotel had all of those "must haves".I rate hotels based on 4 things that they often miss. These are the things that go from middle of the road (3 stars), to a delightful experience.  1) good in room coffee, 2) a good shower 3) ample bathroom light, 4) sound proof room.1) Coffee- this hotel has a Keurig in room, which is a bonus, and although I had 1 regular POD, and 2 decaf PODs ( should have been the other way around), and I only had 1 baggie of cream/sugar/stirrers. Also instead of ceramic mugs, had styrofoam cups, with lids.   Overall= 3 stars (Adequate, but not a delighted experience). Im sure If I had contacted management, they would have brought me some, but I shouldn't need to do so. 2) good shower- I have thick hair and need strong water pressure, to rise it.  They had a shower head that was adjustable, for various water pressures, and plenty of hot water that arrived quickly. Here the hotel scores 5 stars.3) Bathroom light. This one, many hotels miss. You would think that if 50% of guests are women, they would have adequate light to apply makeup. However, evidently a man designed these bathrooms, and instead of bright light, its a ambient warm candle light, with lights aimed at the ceiling. In fact there is not any suitable lighting in the room. I had to take a hand mirror, and go sit in the east facing window, to get decent lighting. 1 Star. 4) Soundproof rooms- my room was at the end of the hallway, so this should have been a win. Unfortunately, the fire door, slams closed, and someone used it very frequently. Someone was also having a conversation in the hallway ( or maybe in the room across the hall) , and I could hear EVERY word ( I sure hope Dottie's gallbladder operation turns out ok). One of my coworker's room was below the restaurant's piano. She knows this because she could hear it every night. Some rooms might have been ok, but ours were not. 2 StarsIn addition, the hotel has stopped the continental breakfast, in lieu of a paid restaurant. Disappointing.While this hotel has fine, I wouldn't necessarily seek it out on my next visit. There are others close by, that I would try first.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>There are things that I expect ALL hotels to have; clean rooms, comfortable bed, friendly staff, etc. if you miss any of these you automatically score a "1 star".  This hotel had all of those "must haves".
+I rate hotels based on 4 things that they often miss. These are the things that go from middle of the road (3 stars), to a delightful experience.  1) good in room coffee, 2) a good shower 3) ample bathroom light, 4) sound proof room.
+1) Coffee- this hotel has a Keurig in room, which is a bonus, and although I had 1 regular POD, and 2 decaf PODs ( should have been the other way around), and I only had 1 baggie of cream/sugar/stirrers. Also instead of ceramic mugs, had styrofoam cups, with lids.   Overall= 3 stars (Adequate, but not a delighted experience). Im sure If I had contacted management, they would have brought me some, but I shouldn't need to do so. 
+2) good shower- I have thick hair and need strong water pressure, to rise it.  They had a shower head that was adjustable, for various water pressures, and plenty of hot water that arrived quickly. Here the hotel scores 5 stars.
+3) Bathroom light. This one, many hotels miss. You would think that if 50% of guests are women, they would have adequate light to apply makeup. However, evidently a man designed these bathrooms, and instead of bright light,...There are things that I expect ALL hotels to have; clean rooms, comfortable bed, friendly staff, etc. if you miss any of these you automatically score a "1 star".  This hotel had all of those "must haves".I rate hotels based on 4 things that they often miss. These are the things that go from middle of the road (3 stars), to a delightful experience.  1) good in room coffee, 2) a good shower 3) ample bathroom light, 4) sound proof room.1) Coffee- this hotel has a Keurig in room, which is a bonus, and although I had 1 regular POD, and 2 decaf PODs ( should have been the other way around), and I only had 1 baggie of cream/sugar/stirrers. Also instead of ceramic mugs, had styrofoam cups, with lids.   Overall= 3 stars (Adequate, but not a delighted experience). Im sure If I had contacted management, they would have brought me some, but I shouldn't need to do so. 2) good shower- I have thick hair and need strong water pressure, to rise it.  They had a shower head that was adjustable, for various water pressures, and plenty of hot water that arrived quickly. Here the hotel scores 5 stars.3) Bathroom light. This one, many hotels miss. You would think that if 50% of guests are women, they would have adequate light to apply makeup. However, evidently a man designed these bathrooms, and instead of bright light, its a ambient warm candle light, with lights aimed at the ceiling. In fact there is not any suitable lighting in the room. I had to take a hand mirror, and go sit in the east facing window, to get decent lighting. 1 Star. 4) Soundproof rooms- my room was at the end of the hallway, so this should have been a win. Unfortunately, the fire door, slams closed, and someone used it very frequently. Someone was also having a conversation in the hallway ( or maybe in the room across the hall) , and I could hear EVERY word ( I sure hope Dottie's gallbladder operation turns out ok). One of my coworker's room was below the restaurant's piano. She knows this because she could hear it every night. Some rooms might have been ok, but ours were not. 2 StarsIn addition, the hotel has stopped the continental breakfast, in lieu of a paid restaurant. Disappointing.While this hotel has fine, I wouldn't necessarily seek it out on my next visit. There are others close by, that I would try first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r485138628-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>485138628</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>It was clean &amp; quiet. I really liked that the maid never bothered me even the day I was leaving. I left my room about a half hour after check out time and the maid didn't even knock on my door. Last month I was staying at a very expensive hotel in Charleston, SC that knocked on my door multiple times throughput my 5 day stay and it was absolutely so rude and disturbing to me. It was all about their schedule. So thank you Holiday Inn Parker, CO! I will stay there again when I return to visit family.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r480668365-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -535,6 +801,45 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r476427158-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>476427158</t>
+  </si>
+  <si>
+    <t>Gone downhill</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and am usually quite pleased, but this stay wasn't up to par. The Jacuzzi tub suite is still large has it's pros (mainly that is has a jetted tub), but it's time for new carpet and furniture. Everything is looking worn and stained. The bed is old and mushy and gives you a backache. The air conditioning unit worked so poorly that we had to go and buy a fan. We were charged $20 for the room service delivery fee and they said that doesn't include the tip. Considering that our room was only 50ft from the restaurant, and they didn't even provide salt &amp; pepper or a glass of water, that is way, way too much. I usually pay around $3 fee, even at a 5 star hotel. We asked for more coffee pods brought to our room and were met with irritation. Overall, the hotel and service have gone downhill and this will no longer be my go to place in Parker.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded May 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and am usually quite pleased, but this stay wasn't up to par. The Jacuzzi tub suite is still large has it's pros (mainly that is has a jetted tub), but it's time for new carpet and furniture. Everything is looking worn and stained. The bed is old and mushy and gives you a backache. The air conditioning unit worked so poorly that we had to go and buy a fan. We were charged $20 for the room service delivery fee and they said that doesn't include the tip. Considering that our room was only 50ft from the restaurant, and they didn't even provide salt &amp; pepper or a glass of water, that is way, way too much. I usually pay around $3 fee, even at a 5 star hotel. We asked for more coffee pods brought to our room and were met with irritation. Overall, the hotel and service have gone downhill and this will no longer be my go to place in Parker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r474251927-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>474251927</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Great stay for Thanksgiving</t>
+  </si>
+  <si>
+    <t>Family visit for Thanksgiving. Rooms are clean and spacious enough for family of 4. Good, safe location and friendly staff made our visit pleasant. With only a couple of hotels in Parker, we would recommend Holiday Inn.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r460682163-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -577,9 +882,6 @@
     <t>Okay some wise owl figured let's attach a third party restaurant and get rid of the traditional Holiday Inn Express breakfast. Like what were you thinking breaking the rules of why we love Holiday Inn. Senior management is sort of cold so expect and quick brush off to the room. For sure get a room not facing E470 and you will be okay for road noise. However, the walls are thin so I endured a coughing and snoring guy all night long. Oh and another thing only the suites have the microwave and small fridge so that was missed. Overall okay stay for location.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 20, 2017</t>
   </si>
   <si>
@@ -607,6 +909,39 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r448707190-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>448707190</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here on the way to a ski trip and loved it. The hotel was a little away from popular Denver attractions but close enough to save significant amount of money by staying here. Huge comfy rooms with plenty of space for my large family.  We did attractions during th day and came back to find plenty of local food places to eat at night. A must stay again. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r442418026-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>442418026</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay here, the staff is super friendly and rooms are nice, clean and comfortable.  The restaurant upstairs, Trapper's Chophouse, was pricey but very good.  Also, breakfast was good but is not included with the room, you have to pay extra for that.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r442014737-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -622,9 +957,6 @@
     <t>The room was much bigger than I expected, almost like a suite.  There are several dining options in the area, as well as a restaurant in the hotel (I didn't try them.)  No refrigerator in the room.  Also, if you're on the first floor you'll have to go to the front desk or up to the second floor for ice.  Not a huge deal though.The girl at the front desk was awesome, very friendly and efficient.I recommend this hotel if you're going to be in Parker.  It's well situated, the room was great and the rates were not bad at all.</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r436623095-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -664,6 +996,39 @@
     <t>Was here just for the night, and stayed here because a nearby Holiday Inn Express was full... got close to the same rate and really found it to be a winner.I appreciated staff's suggestion that I try Uber instead of taking a cab to/from the Denver International Airport - saved me a bundle (nearly 50%) and had a great experience trying Uber for the first time!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r432258020-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>432258020</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>We needed a hotel by the Vehicle Vault in Parker, CO and we stayed here. Wonderful experience. When you make reservations, buy the breakfast. You can either do their buffet or order off the menu. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r424256215-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>424256215</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Good stay-quality hotel</t>
+  </si>
+  <si>
+    <t>Stayed here one night while on business.  Holiday Inn quality is evident in this hotel, which is very well maintained. Breakfast service was excellent, and the buffet is well appointed and stocked.  Can also order off the menu.  There is a steakhouse on the top floor which I found average.  There are several restaurants in the area.I would stay here again.  Room was quiet and spacious.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r410156906-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -712,6 +1077,51 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r383542527-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>383542527</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>First off, I accidentally made my reservation for September so the front desk man was very nice and able to change my date to the current days I needed to stay.  This location is a nice Holiday Inn with a nice steak restaurant built into it.  It's a great location near the highway but not close enough to hear any of the traffic and there are lots of great restaurants/shops nearby.  My room was a queen size with a nice bathroom.  The only thing I'd change about it is the low lighting in the bathroom.  Being a woman it would be nicer to have day light lighting so it's easier to do your makeup, etc.  Other than that it was great and I would return again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>First off, I accidentally made my reservation for September so the front desk man was very nice and able to change my date to the current days I needed to stay.  This location is a nice Holiday Inn with a nice steak restaurant built into it.  It's a great location near the highway but not close enough to hear any of the traffic and there are lots of great restaurants/shops nearby.  My room was a queen size with a nice bathroom.  The only thing I'd change about it is the low lighting in the bathroom.  Being a woman it would be nicer to have day light lighting so it's easier to do your makeup, etc.  Other than that it was great and I would return again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r370878908-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>370878908</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>One night business visit</t>
+  </si>
+  <si>
+    <t>This location is what you expect from HI.  Check in  and out was easy and smooth.  The room was clean, but offered few amenities.  the TV was small for the room size, the internet was very good with a good work desk.. Breakfast is an additional charge and rather pricey.They have a full restaurant (steak) on the fourth floor, we ate elsewhere.  Adjacent to this hotel, and an easy walk are several other restaurants, including a Red Robin and Brick House.Hotels in this area are plentiful, this one seems somewhat overpriced.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>This location is what you expect from HI.  Check in  and out was easy and smooth.  The room was clean, but offered few amenities.  the TV was small for the room size, the internet was very good with a good work desk.. Breakfast is an additional charge and rather pricey.They have a full restaurant (steak) on the fourth floor, we ate elsewhere.  Adjacent to this hotel, and an easy walk are several other restaurants, including a Red Robin and Brick House.Hotels in this area are plentiful, this one seems somewhat overpriced.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r366214485-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -763,6 +1173,42 @@
     <t>Arrived Monday afternoon, had no problems checking in and my stay was very uneventful I'm going to try the steakhouse on site, I've been told that it is very good Rooms clean and well organized,I will come back to this location soon all the staff were very friendly and helpful</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r357846951-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>357846951</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Awesome staff, clean hotel, perfect pool and hot tub</t>
+  </si>
+  <si>
+    <t>The front desk manager (staff also) were awesome, so friendly and accommodating!!!!  The room had a beautiful view.  Breakfast was excellent with the added plus of a friendly staff.  Hotel kept so clean.  Wow or wow, perfectly heated pool and hot tub.  This is a must stay hotel.  Check out the 4th floor Trappers restaurant - panoramic views.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r354688424-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>354688424</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Still feels new when you walk in. Our room was on the first floor. The ceilings were about twelve feet high, which served to make the smallish room seem more spacious. It was quiet, as far as external noises, but noises from the room above were rather loud at times. There was a desk and chair, as well as a comfy chair by the window. No fridge or microwave, but there was a coffeemaker. The view was unobstructed by another building. In the distance were the Rockies stretched from left to right. Of course there is a chunk of metro Denver in between the window and the mountains. I booked online with a great rate but without complimentary breakfast. Upon check-in, we were given a token worth $10 at the restaurant located on the 4th floor, which we used. There is plenty of parking and the location is handy to E40, Costco, Adventist Hospital, and plenty of restaurants. Parker is easy to navigate and on the southeast edge of suburban Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Still feels new when you walk in. Our room was on the first floor. The ceilings were about twelve feet high, which served to make the smallish room seem more spacious. It was quiet, as far as external noises, but noises from the room above were rather loud at times. There was a desk and chair, as well as a comfy chair by the window. No fridge or microwave, but there was a coffeemaker. The view was unobstructed by another building. In the distance were the Rockies stretched from left to right. Of course there is a chunk of metro Denver in between the window and the mountains. I booked online with a great rate but without complimentary breakfast. Upon check-in, we were given a token worth $10 at the restaurant located on the 4th floor, which we used. There is plenty of parking and the location is handy to E40, Costco, Adventist Hospital, and plenty of restaurants. Parker is easy to navigate and on the southeast edge of suburban Denver.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r330836196-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -824,6 +1270,48 @@
   </si>
   <si>
     <t>This HI is about 10 years old, and is showing its age. Rooms are rather plain and the furniture is worn, and sometimes stained.  They charge an extra $13 per person for a very ordinary motel breakfast bar.  Wifi was painfully slow. Definitely not worth the $150 pricetag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r312445611-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>312445611</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Good business trip hotel</t>
+  </si>
+  <si>
+    <t>Stay one night here in Parker, CO. while on a business trip.  Hotel was great to stay at, the people were friendly and accommodating.   It was nice to have a nice restaurant at the hotel and not having to drive to go eat.  However there are two other places right nearby walking distance that I did not eat at, but were nice and close.  The room was very nice, I was on the four floor where all the suites were, did not expect to be in a suite, but it was very nice to have the  room to spread out and relax after the days business.  Room was clean and had a microwave and fridge along with a coffee maker, always a nice touch.  The shades were nice and made the room dark enough for me, who likes it really dark when I sleep, that I had not trouble falling asleep.  A good bed and pillows were also very nice to have, had a good sleep.  All in all I would not hesitate t stay here again, even if I had my family along with me too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stay one night here in Parker, CO. while on a business trip.  Hotel was great to stay at, the people were friendly and accommodating.   It was nice to have a nice restaurant at the hotel and not having to drive to go eat.  However there are two other places right nearby walking distance that I did not eat at, but were nice and close.  The room was very nice, I was on the four floor where all the suites were, did not expect to be in a suite, but it was very nice to have the  room to spread out and relax after the days business.  Room was clean and had a microwave and fridge along with a coffee maker, always a nice touch.  The shades were nice and made the room dark enough for me, who likes it really dark when I sleep, that I had not trouble falling asleep.  A good bed and pillows were also very nice to have, had a good sleep.  All in all I would not hesitate t stay here again, even if I had my family along with me too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r309677874-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>309677874</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Smelly and Loud</t>
+  </si>
+  <si>
+    <t>I stayed in a suite on the third floor on the Southside.  The restaurant is above the room's and I loud until the restaurant is closed.  The rooms smelled funny and the hallway smelled like a mechanical smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in a suite on the third floor on the Southside.  The restaurant is above the room's and I loud until the restaurant is closed.  The rooms smelled funny and the hallway smelled like a mechanical smell.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r303074667-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
@@ -907,6 +1395,57 @@
     <t>We were here for a couple nights from out of town visiting friends, and this was a very comfortable stay. It was located near lots of restaurant options and main transportation corridors. The room was large and clean, and the mattress very comfortable. Staff was friendly, and the free coffee was good. The pool and jacuzzi were very relaxing for a morning workout to get the blood pumping. A suggestion would be that the staff go into a bit more detail up front about what is available in terms of amenities, such as the breakfast situation (included or not?) and the gym across the street. We wouldn't have known the drill about those things unless we had asked.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r294655520-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>294655520</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Not very accommodating</t>
+  </si>
+  <si>
+    <t>We registered fornour room over the main HI 800 number. When we arrived to our room we found that it was a handicap room. Although the room is not bad, it makes traveling with a toddler a little more difficult because everything is within her reach, including the safety door latch. There is no fridge or microwave in the room, which honestly, I would kind of think should be in a room for handicapped people bc they may have medication that needs to be refridgerated. We arrived on a Tuesday and are departing on Saturday. They were unable to change our room to another 2 queen room after requesting on the very first day, we made a request the second day too but the only thing they had was a single king room. The pool is small, the dining is pricey. The fitness room has old exercise equipment. Kinda just not impressed with it here. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>We registered fornour room over the main HI 800 number. When we arrived to our room we found that it was a handicap room. Although the room is not bad, it makes traveling with a toddler a little more difficult because everything is within her reach, including the safety door latch. There is no fridge or microwave in the room, which honestly, I would kind of think should be in a room for handicapped people bc they may have medication that needs to be refridgerated. We arrived on a Tuesday and are departing on Saturday. They were unable to change our room to another 2 queen room after requesting on the very first day, we made a request the second day too but the only thing they had was a single king room. The pool is small, the dining is pricey. The fitness room has old exercise equipment. Kinda just not impressed with it here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r291897593-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>291897593</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Large rooms, clean and comfortable</t>
+  </si>
+  <si>
+    <t>PROSAirport access. Nice hotel that isn't super close to the airport but more convenient that other Denver locations as you avoid traffic. Large rooms with two comfortable Queen beds and a sofa bed.Large bathroom and shower with good water pressure and hot waterFriendly and helpful staffCleanCONSThis hotel is too basic to justify a cost near or above $200/nightMoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2015</t>
+  </si>
+  <si>
+    <t>PROSAirport access. Nice hotel that isn't super close to the airport but more convenient that other Denver locations as you avoid traffic. Large rooms with two comfortable Queen beds and a sofa bed.Large bathroom and shower with good water pressure and hot waterFriendly and helpful staffCleanCONSThis hotel is too basic to justify a cost near or above $200/nightMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r291579099-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -922,15 +1461,6 @@
     <t>This was a spur of the moment get away to use a free night before we would lose it.  What a great choice!  A leisurely drive down, an early check in and a few minutes later we were enjoying the pool.  The pool area was  very clean and easy to access.  The king suite was comfortable and view of the mountains was nice.  We were on the top floor with just a few rooms so it was pleasantly quiet.  We would definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded July 26, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 26, 2015</t>
-  </si>
-  <si>
     <t>This was a spur of the moment get away to use a free night before we would lose it.  What a great choice!  A leisurely drive down, an early check in and a few minutes later we were enjoying the pool.  The pool area was  very clean and easy to access.  The king suite was comfortable and view of the mountains was nice.  We were on the top floor with just a few rooms so it was pleasantly quiet.  We would definitely stay here again.More</t>
   </si>
   <si>
@@ -985,6 +1515,57 @@
     <t>This is a newer hotel and is very clean. The restaurant/bar is on the top floor ( 4th ) and has a great view of the mountains. The food was good, if a little over seasoned for my simple palate. I will return when I am in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r283983022-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>283983022</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Stayed here on our trip to Parker to take part in an art show.  The rooms were nice and bed was comfortable enough. Haven't stayed in a holiday inn for years so wasn't expecting much but it was a nice hotel. Some restaurants within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on our trip to Parker to take part in an art show.  The rooms were nice and bed was comfortable enough. Haven't stayed in a holiday inn for years so wasn't expecting much but it was a nice hotel. Some restaurants within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r275252413-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>275252413</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>A good value</t>
+  </si>
+  <si>
+    <t>my first choice was the Hampton but the economical rooms were booked. I'm actually glad that happened. I checked in very late at night and the man at the front desk couldn't of been more welcoming and pleasant. Room was well sized with a little sitting area and bathroom is exceptionally nice. I thought the location was very convenient although finding it is a little challenging. Plenty of shopping and restaurants close by. In the hotel is the trappers restaurant boasting the best steak around although I can't validate that personally.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>my first choice was the Hampton but the economical rooms were booked. I'm actually glad that happened. I checked in very late at night and the man at the front desk couldn't of been more welcoming and pleasant. Room was well sized with a little sitting area and bathroom is exceptionally nice. I thought the location was very convenient although finding it is a little challenging. Plenty of shopping and restaurants close by. In the hotel is the trappers restaurant boasting the best steak around although I can't validate that personally.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r275198873-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1000,15 +1581,6 @@
     <t>I am a Manager with a large Retailer and stayed here for 6 weeks-Comfortable room-Nice Pool Hot tub area-Ok exercise area could have used some dumbbell's but the exercise machine was adequate as I am an avid fitness enthusiast it also has 2 nice treadmills - a seated exercise bike and a decent elliptical-Nice location to most things  food-movie theater not far from Arapahoe road on Parker quiet -decent breakfast -area eggs-sausage=French toast-fruit the usual fair but plenty-Front desk was very helpful Andrea was awesome-room was kept clean would stop here again 6 weeks is a long time in a hotel but it was comfortable and I liked the location Cosco is just across the way and it has a decent view of the mountains thumbs up -MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>Jimmy W, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded June 17, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 17, 2015</t>
-  </si>
-  <si>
     <t>I am a Manager with a large Retailer and stayed here for 6 weeks-Comfortable room-Nice Pool Hot tub area-Ok exercise area could have used some dumbbell's but the exercise machine was adequate as I am an avid fitness enthusiast it also has 2 nice treadmills - a seated exercise bike and a decent elliptical-Nice location to most things  food-movie theater not far from Arapahoe road on Parker quiet -decent breakfast -area eggs-sausage=French toast-fruit the usual fair but plenty-Front desk was very helpful Andrea was awesome-room was kept clean would stop here again 6 weeks is a long time in a hotel but it was comfortable and I liked the location Cosco is just across the way and it has a decent view of the mountains thumbs up -More</t>
   </si>
   <si>
@@ -1063,6 +1635,60 @@
     <t>We stayed here this past weekend while traveling. We called ahead of time and was given a rate of $117. When we showed up an hour later, which was midnight, we were given a rate of $129.00. We asked about a AAA discount which they granted but didn't apply it to our bill. I guess the later you check in, the more expensive the rate will be. With fees and taxes, we paid $145 and didn't even get a continental breakfast for free. I haven't stayed in a hotel that didn't offer some kind of a breakfast included with your room. The coffee pot in the room is as close as you'll get to breakfast.Just FYI, the continental breakfast was $9.99 (which is yogurt, cereal and fruit) and full Buffett was $12.99. I'd rather stay at the embassy with a 2 hour evening cocktail reception and made to order breakfast included in the price of your room. Not worth it for my family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r252544427-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>252544427</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Not the friendliest staff</t>
+  </si>
+  <si>
+    <t>I was greeted by an unfriendly staff after a long travel so I was not to happy about that.  The room was clean but nothing spectacular.  I had a room under the resturaunt and it was horrible.  Every night I could here high heels walking into and out of the resturaunt.  If you stay here make sure to request a room that is not under the resturaunt.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>I was greeted by an unfriendly staff after a long travel so I was not to happy about that.  The room was clean but nothing spectacular.  I had a room under the resturaunt and it was horrible.  Every night I could here high heels walking into and out of the resturaunt.  If you stay here make sure to request a room that is not under the resturaunt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r250400272-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>250400272</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Nice clean hotel in Parker, close to everything</t>
+  </si>
+  <si>
+    <t>Hotel is very clean, the beds are comfortable, and there is a nice restaurant for evening meals. My biggest complaint was the level of noise, especially on the side closest to E470. There seems to be a lot of noise and talking in the hallways that that starts around 730 am. Other than that I had a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is very clean, the beds are comfortable, and there is a nice restaurant for evening meals. My biggest complaint was the level of noise, especially on the side closest to E470. There seems to be a lot of noise and talking in the hallways that that starts around 730 am. Other than that I had a pleasant stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r245431639-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1081,12 +1707,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded February 3, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 3, 2015</t>
-  </si>
-  <si>
     <t>I have spent the night in a TON of Holiday Inns and this has to be one of the best. First the location is terrific, close to a lot of great restaurants The hotel has a breakfast restaurant downstairs and a steakhouse upstairs. Also It is really close to Costco. I live in a town without a Costco so, this is a big advantage. Also It's not far from Denver's newest addition TRADER JOE'S! Also the room was clean quiet and comfortable. The check in/out was super fast and the staff top notch. I'll be back when I'm staying in Denver.More</t>
   </si>
   <si>
@@ -1123,6 +1743,63 @@
     <t xml:space="preserve">This hotel is very nice. Seems fairly new and the decor is modern. The bathroom is great with an up to date massaging shower head. The area around the hotel is also convenient to many nice restaurants that should suit most tastes. They are all within walking distance. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r232133828-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>232133828</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Nice staff, poor breakfast</t>
+  </si>
+  <si>
+    <t>This is a newer property and the hotel itself was very clean and well kept.  Easy to find and it's close to lots of shopping and places to eat.  I want to offer a very big thank you to a charming young woman named Andrea at the front desk.  She was friendly, helpful and went the extra mile to make our stay comfortable. Any business would benefit from more staff like this lady!
+We had booked a room that, for an additional charge, provided us with breakfast each morning.  When we checked in we received some type of "voucher" that said it was for up to $20 for breakfast, one for each day.  Since there was a menu as well as a breakfast buffet I spoke with the dining room staff to explain how this worked.  They said that some folks get only a continental breakfast at the buffet and others, like us, received both prepared hot items from all of the buffet.  If a guest wanted to order from the menu they could do so but would have to pay for any costs above that $20.  She explained that the full buffet costs $12.95 but that two people are covered if they have they vouchers.  The items shown on the menu were mostly over $10 and if we ordered from that the costs would be significantly more than a dollar or two.  This seemed flatly deceptive since no dollar...This is a newer property and the hotel itself was very clean and well kept.  Easy to find and it's close to lots of shopping and places to eat.  I want to offer a very big thank you to a charming young woman named Andrea at the front desk.  She was friendly, helpful and went the extra mile to make our stay comfortable. Any business would benefit from more staff like this lady!We had booked a room that, for an additional charge, provided us with breakfast each morning.  When we checked in we received some type of "voucher" that said it was for up to $20 for breakfast, one for each day.  Since there was a menu as well as a breakfast buffet I spoke with the dining room staff to explain how this worked.  They said that some folks get only a continental breakfast at the buffet and others, like us, received both prepared hot items from all of the buffet.  If a guest wanted to order from the menu they could do so but would have to pay for any costs above that $20.  She explained that the full buffet costs $12.95 but that two people are covered if they have they vouchers.  The items shown on the menu were mostly over $10 and if we ordered from that the costs would be significantly more than a dollar or two.  This seemed flatly deceptive since no dollar limit was shown when we booked the room/breakfast combination.  The first morning my spouse ate from the buffet and lets just say that there were a few problems noted:  the milk she asked for was sour and spoiled; the second glass of milk was also bad; the bagel I picked to toast was wrapped but hard/stale on half of it; the bacon was undercooked and flabby.  The next day she decided that she'd order simple pancakes from the menu.  I was done with breakfast when they finally arrived and they looked like pale, undercooked white pillows that would have benefited from a few more minutes on the griddle.  At least her choice was under her $10 limit so we weren't charged an additional fee.  This is a decent hotel that should handle breakfast better both disclosing this screwy voucher/menu/cost issue and see that what is served is prepared decently and in a timely manner.  They can do better!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded October 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2014</t>
+  </si>
+  <si>
+    <t>This is a newer property and the hotel itself was very clean and well kept.  Easy to find and it's close to lots of shopping and places to eat.  I want to offer a very big thank you to a charming young woman named Andrea at the front desk.  She was friendly, helpful and went the extra mile to make our stay comfortable. Any business would benefit from more staff like this lady!
+We had booked a room that, for an additional charge, provided us with breakfast each morning.  When we checked in we received some type of "voucher" that said it was for up to $20 for breakfast, one for each day.  Since there was a menu as well as a breakfast buffet I spoke with the dining room staff to explain how this worked.  They said that some folks get only a continental breakfast at the buffet and others, like us, received both prepared hot items from all of the buffet.  If a guest wanted to order from the menu they could do so but would have to pay for any costs above that $20.  She explained that the full buffet costs $12.95 but that two people are covered if they have they vouchers.  The items shown on the menu were mostly over $10 and if we ordered from that the costs would be significantly more than a dollar or two.  This seemed flatly deceptive since no dollar...This is a newer property and the hotel itself was very clean and well kept.  Easy to find and it's close to lots of shopping and places to eat.  I want to offer a very big thank you to a charming young woman named Andrea at the front desk.  She was friendly, helpful and went the extra mile to make our stay comfortable. Any business would benefit from more staff like this lady!We had booked a room that, for an additional charge, provided us with breakfast each morning.  When we checked in we received some type of "voucher" that said it was for up to $20 for breakfast, one for each day.  Since there was a menu as well as a breakfast buffet I spoke with the dining room staff to explain how this worked.  They said that some folks get only a continental breakfast at the buffet and others, like us, received both prepared hot items from all of the buffet.  If a guest wanted to order from the menu they could do so but would have to pay for any costs above that $20.  She explained that the full buffet costs $12.95 but that two people are covered if they have they vouchers.  The items shown on the menu were mostly over $10 and if we ordered from that the costs would be significantly more than a dollar or two.  This seemed flatly deceptive since no dollar limit was shown when we booked the room/breakfast combination.  The first morning my spouse ate from the buffet and lets just say that there were a few problems noted:  the milk she asked for was sour and spoiled; the second glass of milk was also bad; the bagel I picked to toast was wrapped but hard/stale on half of it; the bacon was undercooked and flabby.  The next day she decided that she'd order simple pancakes from the menu.  I was done with breakfast when they finally arrived and they looked like pale, undercooked white pillows that would have benefited from a few more minutes on the griddle.  At least her choice was under her $10 limit so we weren't charged an additional fee.  This is a decent hotel that should handle breakfast better both disclosing this screwy voucher/menu/cost issue and see that what is served is prepared decently and in a timely manner.  They can do better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r231475025-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>231475025</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Appreciates Their Guests</t>
+  </si>
+  <si>
+    <t>Bottom Line: Helpful and polite staff that is willing to go the extra mile to help their guests and maintains a clean hotel. 
+My wife and child stayed in the hotel for four days. It was our first trip to the Denver/Parker area and the stay at the Parker Holiday Inn did not detract from our wonderful stay. The hotel was easy to get to from Denver International and it is located near Parker's town center. The grounds are clean and located near several restaurants and an upscale gym. 
+From check-in to checkout the staff were professional and sought to make our stay an exceptional one. For example, one morning my wife had a headache and I went to the hotel's little shop for Advil. The shop was out of Advil so I asked the person running the front desk if there was more Advil in the back. After looking, he was unable to locate any pills. It was no big deal because I could go to Target down the street. However, ten to fifteen minutes later the desk manger I talked to came to the table the family and I were at eating breakfast at and gave us a small unopened bottle of Advil. After I thanked him I asked how much I owed and he replied no charge. Now that single gesture doesn't seem like a big deal but it actually is because small things like that show...Bottom Line: Helpful and polite staff that is willing to go the extra mile to help their guests and maintains a clean hotel. My wife and child stayed in the hotel for four days. It was our first trip to the Denver/Parker area and the stay at the Parker Holiday Inn did not detract from our wonderful stay. The hotel was easy to get to from Denver International and it is located near Parker's town center. The grounds are clean and located near several restaurants and an upscale gym. From check-in to checkout the staff were professional and sought to make our stay an exceptional one. For example, one morning my wife had a headache and I went to the hotel's little shop for Advil. The shop was out of Advil so I asked the person running the front desk if there was more Advil in the back. After looking, he was unable to locate any pills. It was no big deal because I could go to Target down the street. However, ten to fifteen minutes later the desk manger I talked to came to the table the family and I were at eating breakfast at and gave us a small unopened bottle of Advil. After I thanked him I asked how much I owed and he replied no charge. Now that single gesture doesn't seem like a big deal but it actually is because small things like that show that the staff cares about their guests and they are trained enough to know small things like finding Advil for a guest does matter. MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Bottom Line: Helpful and polite staff that is willing to go the extra mile to help their guests and maintains a clean hotel. 
+My wife and child stayed in the hotel for four days. It was our first trip to the Denver/Parker area and the stay at the Parker Holiday Inn did not detract from our wonderful stay. The hotel was easy to get to from Denver International and it is located near Parker's town center. The grounds are clean and located near several restaurants and an upscale gym. 
+From check-in to checkout the staff were professional and sought to make our stay an exceptional one. For example, one morning my wife had a headache and I went to the hotel's little shop for Advil. The shop was out of Advil so I asked the person running the front desk if there was more Advil in the back. After looking, he was unable to locate any pills. It was no big deal because I could go to Target down the street. However, ten to fifteen minutes later the desk manger I talked to came to the table the family and I were at eating breakfast at and gave us a small unopened bottle of Advil. After I thanked him I asked how much I owed and he replied no charge. Now that single gesture doesn't seem like a big deal but it actually is because small things like that show...Bottom Line: Helpful and polite staff that is willing to go the extra mile to help their guests and maintains a clean hotel. My wife and child stayed in the hotel for four days. It was our first trip to the Denver/Parker area and the stay at the Parker Holiday Inn did not detract from our wonderful stay. The hotel was easy to get to from Denver International and it is located near Parker's town center. The grounds are clean and located near several restaurants and an upscale gym. From check-in to checkout the staff were professional and sought to make our stay an exceptional one. For example, one morning my wife had a headache and I went to the hotel's little shop for Advil. The shop was out of Advil so I asked the person running the front desk if there was more Advil in the back. After looking, he was unable to locate any pills. It was no big deal because I could go to Target down the street. However, ten to fifteen minutes later the desk manger I talked to came to the table the family and I were at eating breakfast at and gave us a small unopened bottle of Advil. After I thanked him I asked how much I owed and he replied no charge. Now that single gesture doesn't seem like a big deal but it actually is because small things like that show that the staff cares about their guests and they are trained enough to know small things like finding Advil for a guest does matter. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r229964481-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1136,9 +1813,6 @@
   </si>
   <si>
     <t>We statyed here the night before we flew out of Denver. The hotel is right off of 470 and an easy 20 minute drive to the Denver airport. The staff were friendly and accommodating, the rooms clean and comfortable. What more could you ask for?MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2014</t>
   </si>
   <si>
     <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded September 25, 2014</t>
@@ -1201,6 +1875,48 @@
 It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,...I'll start off good......Nice Hotel, clean, spacious room, more than enough to eat within walking distance and an on site restaurant.  The bed....ehhhhh at best.  So, for me, it was OK. It was a long long day.  One appt canceled on me so I was running ahead on time.  Since I traveled and stopped in half the US in the last 24 hours, I was ready to crash.   I called HI to ask if I could check in a tad early.  I was transferred to reservations, I asked again and they were transferring me to the front desk, after telling me they have more than enough rooms open.   She transferred me to the front desk and I got a recording that the number had been disconnected ( ??????).   Well, I got there and took a shot in the dark.I couldn't get in a room early. My perception is, not much of an attempt was given.  I was told to drive around until 3:00.  ( like I know Parker CO).  When I came back, another front desk person was there.It wasn't that I couldn't get in a room early.....such is life.  It was more the "I really don't need to try to help you" attitude and "here's your key, now go to your room"....no thank you, how you doing, etc etc. With that, I opted to dine elsewhere.  My fear was getting the same attitude, better yet, non-caring attitude,  in the restaurant as I did at the front desk. I did keep my little gold coin though.We have a saying down south.   "He still works here, but he quit 3 years ago"  That's the best description I can come up with for this stay.  For $140 a night.....nope, you aren't doing me any favors.   Time for a Dale Carnegie Course?????But like I said, nice hotel, nice room....slow inter-web, but that's hotel life.I'll be back this month, I'll try it again......If it doesn't work out.....I'll start building my points at Hampton..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r223516827-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>223516827</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Mattresses were shot!</t>
+  </si>
+  <si>
+    <t>My wife and I were taking our daughter to college and we spent a night here. The hotel itself is nice, with a full breakfast served in a small restaurant located off of the lobby. It isn't free, in fact it is $10 a person,but the food looked good. The steakhouse located on the top floor gets good reviews, but we didn't eat there. The room was clean, but as mentioned in other reviews, there was no microwave or fridge. My issue, as well as my wife's and daughter's was the condition of the mattresses. Frankly, I'm surprised there has been little mention of this in other reviews. Our beds were horrible, with almost no support coming from obviously worn mattress springs. Even my daughter had trouble sleeping on her bed. Perhaps our room was the exception, but I stay in hotels over 100 nights a year, and these mattresses were as bad as I've seen. To summarize, you get Holiday Inn beds with Motel 6 mattresses. If you suffer with back issues, go elsewhere. If not, this hotel is acceptable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda Q, Director of Sales at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I were taking our daughter to college and we spent a night here. The hotel itself is nice, with a full breakfast served in a small restaurant located off of the lobby. It isn't free, in fact it is $10 a person,but the food looked good. The steakhouse located on the top floor gets good reviews, but we didn't eat there. The room was clean, but as mentioned in other reviews, there was no microwave or fridge. My issue, as well as my wife's and daughter's was the condition of the mattresses. Frankly, I'm surprised there has been little mention of this in other reviews. Our beds were horrible, with almost no support coming from obviously worn mattress springs. Even my daughter had trouble sleeping on her bed. Perhaps our room was the exception, but I stay in hotels over 100 nights a year, and these mattresses were as bad as I've seen. To summarize, you get Holiday Inn beds with Motel 6 mattresses. If you suffer with back issues, go elsewhere. If not, this hotel is acceptable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r211047116-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>211047116</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>If Parker is your destination this is the hotel you want.</t>
+  </si>
+  <si>
+    <t>I stayed here overnight for my birthday. We were planning on dinner at the hotel restaurant Trappers. Trappers is a unique dining experience as they serve cuts of meat that you cook on heated stones right at the table and not a bad deal at an average price of $30 per person! With the rewards peogr you get $10 off of your meal as well. It also has a nice bar. The room was a two queen suite. Suite meaning added couch seating area with a refrigerator but that was great because the plan was to drink and not drive! The in room movies had a great selection of movies still even in theatres and at $15 not such a bad deal. The linens were nice, the beds comfy. The breakfast was done with a coupon and you end up owing some $ after but not too much. Your typical breakfast buffet although I believe there were waffles. There was a discrepancy at check in on the price of the room but the manager handled it well and gave us the original price promised. Overall it was a great birthday in a nice hotel with great friends. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here overnight for my birthday. We were planning on dinner at the hotel restaurant Trappers. Trappers is a unique dining experience as they serve cuts of meat that you cook on heated stones right at the table and not a bad deal at an average price of $30 per person! With the rewards peogr you get $10 off of your meal as well. It also has a nice bar. The room was a two queen suite. Suite meaning added couch seating area with a refrigerator but that was great because the plan was to drink and not drive! The in room movies had a great selection of movies still even in theatres and at $15 not such a bad deal. The linens were nice, the beds comfy. The breakfast was done with a coupon and you end up owing some $ after but not too much. Your typical breakfast buffet although I believe there were waffles. There was a discrepancy at check in on the price of the room but the manager handled it well and gave us the original price promised. Overall it was a great birthday in a nice hotel with great friends. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r205595709-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1279,6 +1995,51 @@
     <t>If you are going to stay in Parker, Colorado, then you should stay at the Holiday Inn. It has one of the better restaurants in Parker, Trapper's. This restaurant is expensive for Parker; expect to pay around $30 per person. The hotel itself is more attractive than the typical Holiday Inn and the rooms are modern and the beds comfortable. The housekeeping staff entered the room while my sister was sleeping and continued to clean, which I found ridiculous. Other than that, I recommend this hotel if you need to stay in Parker. If not, check out hotels in the Denver Tech Center, not too far from Parker. Please note, Parker is *not* a place to stay if you want to stay in Denver. It is about 30 minutes to downtown, with moderate traffic.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r186360698-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>186360698</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Denver-Parker in order to be close to DIA for my flight back to NC. Everyone at the hotel, from check-in to check-out was very nice. The room was clean. There were more than enough towels (bath sheets really) and they were not worn out. The bed pillows were marked "Firm" and "Soft"The room temp. control was outstanding.A couple of small grips: I don't know when the upscale hotels starting doing the European duvet thing but I end up taking the duvet insert completely off the bed and using the sheet and bedspread. I'd die from heat stroke if I left the insert in placeThe hotel offered a breakfast (buffet or menu; not included in the room cost) just off the lobby. The food was remarkable in that it was so unremarkable. I'm not saying that it was bad, I'm saying that it could have been much better with a little seasoning.Bottom line: I'd stay here again IF I was using credit card miles to pay as I did this trip. I'm not at all sure that the room was worth the $100+ rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Denver-Parker in order to be close to DIA for my flight back to NC. Everyone at the hotel, from check-in to check-out was very nice. The room was clean. There were more than enough towels (bath sheets really) and they were not worn out. The bed pillows were marked "Firm" and "Soft"The room temp. control was outstanding.A couple of small grips: I don't know when the upscale hotels starting doing the European duvet thing but I end up taking the duvet insert completely off the bed and using the sheet and bedspread. I'd die from heat stroke if I left the insert in placeThe hotel offered a breakfast (buffet or menu; not included in the room cost) just off the lobby. The food was remarkable in that it was so unremarkable. I'm not saying that it was bad, I'm saying that it could have been much better with a little seasoning.Bottom line: I'd stay here again IF I was using credit card miles to pay as I did this trip. I'm not at all sure that the room was worth the $100+ rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r183684878-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>183684878</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Accommodate, Please</t>
+  </si>
+  <si>
+    <t>I was disappointed that all of the rooms did not have microwaves or fridges- I was totally caught by surprise.I did, however, love the bathroom and especially the shower.I just expected more simple accommodations for the price...MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Denver-Parker-E470/Parker Road, responded to this reviewResponded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2013</t>
+  </si>
+  <si>
+    <t>I was disappointed that all of the rooms did not have microwaves or fridges- I was totally caught by surprise.I did, however, love the bathroom and especially the shower.I just expected more simple accommodations for the price...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r181502086-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1330,6 +2091,42 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r171644139-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>171644139</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>suited us well</t>
+  </si>
+  <si>
+    <t>We took an urgent trip to see a loved one at Parker Adventist Hospital (500 yds away).   The hotel is easy to find, clean and efficient.  All members of the front desk team are friendly and helpful.  The breakfast area is leased to a restaurant, so it is not included in all stays.  They did let us grab complimentary coffee.  There are several restaurant options within walking distance, a colossal fitness center next door and Costco a block away.  It was nice to be able to walk over from the hospital, have a mini fridge and table in the suite to have light meals.There is a fitness room with cardio machines in good condition and pool/jacuzzi room.  Would have given 5 stars if just a simple breakfast (fruit, cereal) was included.MoreShow less</t>
+  </si>
+  <si>
+    <t>We took an urgent trip to see a loved one at Parker Adventist Hospital (500 yds away).   The hotel is easy to find, clean and efficient.  All members of the front desk team are friendly and helpful.  The breakfast area is leased to a restaurant, so it is not included in all stays.  They did let us grab complimentary coffee.  There are several restaurant options within walking distance, a colossal fitness center next door and Costco a block away.  It was nice to be able to walk over from the hospital, have a mini fridge and table in the suite to have light meals.There is a fitness room with cardio machines in good condition and pool/jacuzzi room.  Would have given 5 stars if just a simple breakfast (fruit, cereal) was included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r166684068-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>166684068</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>great hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights in June.  Seems like a new hotel- everything was very nice!  Staff was very attentive, and it's in a good location near a few other restaurants and has a steakhouse in it!  It's also right near Parker Rd.Clean, well-maintained gym too.  I'd definitely stay here again!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r164480841-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1381,6 +2178,42 @@
     <t>I  visit Parker on business at least 5 times a year. I like this hotel for several reasons.  First, it's across the street from a large Lifetime Fitness.  Typically if you go in the morning, and you tell them you are staying at the Holiday Inn, the let you in for free.  Sometimes they make you pay $15 but its a great gym!  I also like the restaurant, Trappers.  They have a good room service menu if you dont feel like going to the restaurant. Finally, if you are looking to get out of the hotel, there are a few restaurants in walking distance.  The other option is the Hilton Garden Inn but the don't have a restaurant and its a bit further down the road from the gym and restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r157205974-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>157205974</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I had to go to Parker for a Conference and we stayed at the Holiday Inn. It was great hotel, spacious rooms, and a fabulous restaurant on the 4th floor with views of the Denver Sky Line. Every one was really nice and my three days there were very enjoyable. Thank You!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r157048243-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>157048243</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Convenient</t>
+  </si>
+  <si>
+    <t>I recently traveled to Colorado for a business meeting held at this property. My flight in arrived WELL before check-in time, and the front desk clerk was able to get my co-worker and me checked in upon arrival.I am in hospitality, and I typically "inspect" my hotel rooms when I first get into my room. My room was very clean, and very comfortable. My ONLY complaint was that while the pillows are labeled "soft" and "firm" I really couldn't discern a significant difference (I am a soft pillow sort of sleeper)...That being said- I slept very well. The staff was friendly (not overly), and helpful. I left a note for my housekeeper asking for extra regular coffee, and that afternoon I had several extra packets left for me. The breakfast (which isn't included) was average. It was essentially an expanded continental breakfast, but everything I ate was very good.The first night we stayed the fire alarms went off, and all guests were instructed to evacuate. I appreciated knowing they had a system in place for this sort of thing, and was impressed by the front desk clerk's ability to remain calm and collected.This location was convenient as we were able to meet, eat, and coordinate traveling easily from this one location. I will definitely stay here again the next time I am in Parker!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently traveled to Colorado for a business meeting held at this property. My flight in arrived WELL before check-in time, and the front desk clerk was able to get my co-worker and me checked in upon arrival.I am in hospitality, and I typically "inspect" my hotel rooms when I first get into my room. My room was very clean, and very comfortable. My ONLY complaint was that while the pillows are labeled "soft" and "firm" I really couldn't discern a significant difference (I am a soft pillow sort of sleeper)...That being said- I slept very well. The staff was friendly (not overly), and helpful. I left a note for my housekeeper asking for extra regular coffee, and that afternoon I had several extra packets left for me. The breakfast (which isn't included) was average. It was essentially an expanded continental breakfast, but everything I ate was very good.The first night we stayed the fire alarms went off, and all guests were instructed to evacuate. I appreciated knowing they had a system in place for this sort of thing, and was impressed by the front desk clerk's ability to remain calm and collected.This location was convenient as we were able to meet, eat, and coordinate traveling easily from this one location. I will definitely stay here again the next time I am in Parker!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r141057750-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1450,6 +2283,52 @@
     <t>Stayed on the second floor could have sworn they had the heater going on full blast in the hallway. No refrigerator. Room didn't have a shower curtain but once brought to attention they were very quick to handle. A/C in the room wasn't very efficient had to have them reset the breaker each night before bed. The doors also close very quickly made me incredibly nervous with my little ones fingers. However the staff was great and quick to do what they could. Still not worth the price. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r131943375-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>131943375</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable</t>
+  </si>
+  <si>
+    <t>We stayed three nights in a two queen bedded suite.  The room, bathroom and all sheets and towels were very clean and new looking.  It was nice having a small fridge with a freezer and a microwave since our son was attending a local football camp and was hungry and thirsty all of the time.  Speaking of the football camp - the hotel restaurant opened up early so all of the kids could eat breakfast before camp started everyday.  It was nice to know they cared about their guests.There is a nice restaurant in the hotel and it was great having the Red Robin burger joint and the Saltgrass Steakhouse (which turned out to be a real hit with the boys) just across the parking lot.  Parker is a nice little rural town and we felt right at home here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We stayed three nights in a two queen bedded suite.  The room, bathroom and all sheets and towels were very clean and new looking.  It was nice having a small fridge with a freezer and a microwave since our son was attending a local football camp and was hungry and thirsty all of the time.  Speaking of the football camp - the hotel restaurant opened up early so all of the kids could eat breakfast before camp started everyday.  It was nice to know they cared about their guests.There is a nice restaurant in the hotel and it was great having the Red Robin burger joint and the Saltgrass Steakhouse (which turned out to be a real hit with the boys) just across the parking lot.  Parker is a nice little rural town and we felt right at home here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r119715876-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>119715876</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Wow, I can hear my neighbor!</t>
+  </si>
+  <si>
+    <t>This is a nice enough hotel and pretty new. 
+Pros: The rooms are pretty large and very clean. It's in a good location. Parker is about a 25 minute drive to downtown Denver. There are tons of hotels in walking distance to the hotel. The bathroom is nice and large enough. It also has a vanity mirror... the ones that you flip over to magnify everything. There is a steak restaurant inside the hotel that friends told me was really good. I did not get a chance to try it though. The hotel is pet friendly but charges a fee in order to allow your pet to stay. It's a pretty hefty fee compared to other hotels I've stayed at. The staff is very friendly.
+Cons: The walls are so thin, I could hear my neighbor just blowing his nose even while I had the shower running. The internet is extremely slow. I was trying to download an audiobook on itunes and it took 20 minutes to get only about 20% complete. I was able to go to a Dairy Queen and download the entire book in 5 minutes. The bed just wasn't that comfortable. It seems to move a lot whenever I turned. The a/c didn't work as well as I would have liked and I got pretty warm during the night. This is a pretty new hotel (probably only a few years old) but it still had a...This is a nice enough hotel and pretty new. Pros: The rooms are pretty large and very clean. It's in a good location. Parker is about a 25 minute drive to downtown Denver. There are tons of hotels in walking distance to the hotel. The bathroom is nice and large enough. It also has a vanity mirror... the ones that you flip over to magnify everything. There is a steak restaurant inside the hotel that friends told me was really good. I did not get a chance to try it though. The hotel is pet friendly but charges a fee in order to allow your pet to stay. It's a pretty hefty fee compared to other hotels I've stayed at. The staff is very friendly.Cons: The walls are so thin, I could hear my neighbor just blowing his nose even while I had the shower running. The internet is extremely slow. I was trying to download an audiobook on itunes and it took 20 minutes to get only about 20% complete. I was able to go to a Dairy Queen and download the entire book in 5 minutes. The bed just wasn't that comfortable. It seems to move a lot whenever I turned. The a/c didn't work as well as I would have liked and I got pretty warm during the night. This is a pretty new hotel (probably only a few years old) but it still had a large tube style television. I have stayed in hotels that weren't as new or nice and they had LCD. Overall this isn't a terrible hotel but lacked a lot of things that I would expect in a newer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>This is a nice enough hotel and pretty new. 
+Pros: The rooms are pretty large and very clean. It's in a good location. Parker is about a 25 minute drive to downtown Denver. There are tons of hotels in walking distance to the hotel. The bathroom is nice and large enough. It also has a vanity mirror... the ones that you flip over to magnify everything. There is a steak restaurant inside the hotel that friends told me was really good. I did not get a chance to try it though. The hotel is pet friendly but charges a fee in order to allow your pet to stay. It's a pretty hefty fee compared to other hotels I've stayed at. The staff is very friendly.
+Cons: The walls are so thin, I could hear my neighbor just blowing his nose even while I had the shower running. The internet is extremely slow. I was trying to download an audiobook on itunes and it took 20 minutes to get only about 20% complete. I was able to go to a Dairy Queen and download the entire book in 5 minutes. The bed just wasn't that comfortable. It seems to move a lot whenever I turned. The a/c didn't work as well as I would have liked and I got pretty warm during the night. This is a pretty new hotel (probably only a few years old) but it still had a...This is a nice enough hotel and pretty new. Pros: The rooms are pretty large and very clean. It's in a good location. Parker is about a 25 minute drive to downtown Denver. There are tons of hotels in walking distance to the hotel. The bathroom is nice and large enough. It also has a vanity mirror... the ones that you flip over to magnify everything. There is a steak restaurant inside the hotel that friends told me was really good. I did not get a chance to try it though. The hotel is pet friendly but charges a fee in order to allow your pet to stay. It's a pretty hefty fee compared to other hotels I've stayed at. The staff is very friendly.Cons: The walls are so thin, I could hear my neighbor just blowing his nose even while I had the shower running. The internet is extremely slow. I was trying to download an audiobook on itunes and it took 20 minutes to get only about 20% complete. I was able to go to a Dairy Queen and download the entire book in 5 minutes. The bed just wasn't that comfortable. It seems to move a lot whenever I turned. The a/c didn't work as well as I would have liked and I got pretty warm during the night. This is a pretty new hotel (probably only a few years old) but it still had a large tube style television. I have stayed in hotels that weren't as new or nice and they had LCD. Overall this isn't a terrible hotel but lacked a lot of things that I would expect in a newer hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r118864159-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1465,9 +2344,6 @@
     <t>Normally stay with another Hotel Chain, and were pleasantly surprised by our stay at the Parker Holiday Inn.The Front desk staff were very efficient and helpful.The morning breakfast staff put of a delightful spread.The rooms were clean and roomy, we were on the 4th Floor.We would not hesitate to stay here again.</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r116923993-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1501,6 +2377,39 @@
     <t>Stayed for extended period of time...Floors had red, sticky stuff everywhere- didn't want to take off my socks/shoesInternet is below satisfactory, some floors you cannot access wirelessNo refrigerators or microwaves in rooms, unless you pay for "upgrade"Hotel restaurant was outrageously priced, not a "hang out, wind down" atmosphereHousekeeping shut cord in nightstand drawer and nearly cut in half...Ice maker on floor did not work for 2 weeks, next floor was out of ice</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r86460542-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>86460542</t>
+  </si>
+  <si>
+    <t>11/08/2010</t>
+  </si>
+  <si>
+    <t>A clean, calming atmosphere</t>
+  </si>
+  <si>
+    <t>I enjoyed staying at your facility this past October.  It was located in a nice area close to many attractions.   I thought all my needs were met, I did think the customer service could have been some better as the staff were not overly friendly, they got the job done but did not appear to go above and beyond for their customes.  It would be nice to seem the employees more engaged in their job.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r66099516-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>66099516</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>Nice place but has issues.</t>
+  </si>
+  <si>
+    <t>Warm decor.  Attentive service. Great bathrooms. Our iron board came apart in use. In room coffee service, heap cheap. Late night room service much appreciated, but DO NOT get the Cream Brulee. Over priced. Terrible.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r52973211-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
   </si>
   <si>
@@ -1556,6 +2465,42 @@
   </si>
   <si>
     <t>I travel alot and this hotel ranks toward the bottom of Holiday Inns. The bathrooms are so dark you cannnot see your face to shave or apply make-up, and it appears they use night lights to light the bathroom. When I called the front desk they said others complained but nothing is being done. There is only one lamp on one side of the bed. So if there are two of you, only one person can read. The same dim lights are in the other light fixutres.  The hotel rooms are dated. Otherwise the mattress is comfortable and it was clean. The bathroom is also nice.  However, this is not the Holiday Inn that I have come to know and would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r34624621-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>34624621</t>
+  </si>
+  <si>
+    <t>07/13/2009</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We're at HIS right now and it's wonderful.  Perks of being a Priority member are outstanding (they signed me up when I made the reservation) and include complimentary water bottles on arrival, newspapers, and late check out if necessary.  The pool/spa is wonderful.  Beds are extremely comfortable and bathroom is beautiful, big and well stocked.  Stayed in a downtown Denver hotel last night that was twice the price...and have to say, we would have been so much happier here.  HIS in Parker is a great location, with lots of food choices and shopping.  All around great hotel.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r33019352-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>33019352</t>
+  </si>
+  <si>
+    <t>06/23/2009</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>stayed 5 nights very nice hotel great room great veiw,  , . was impressed by the staff great stay.clean  quite and beds were soft</t>
+  </si>
+  <si>
+    <t>June 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r14792883-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
@@ -1616,6 +2561,36 @@
 There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.
 The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.
 On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I...I expected the standard, Interstate-side modern motel but was pleasantly surprised.  On check-in, the cheerful, friendly clerk was eager to point out that this was the premier Holiday Inn brand, "Select," and he was right.There's nothing fancy but the facilities were in good order and the room itself was clean and generously outfitted - a comfortable king bed with 6 pillows, stone-tiled bathroom with a powerful, hot shower over the bath, two tables and a couch.  They have digitally controlled air-con/heating and sound-proofed windows which cosseted me through the inevitable cold Colorado nights.  The large TV is controlled by the most up-to-date entertainment system, showing the latest movies, 20+ free TV stations, games, music, and the like.  Unfortunately, this can only be viewed from the bed, as the cabinet doors don't open widely.  The leather desk chair also comes a little too close to the bed for easy access to draw the thick curtains.  A minor flaw.The business center features fast internet from the lone PC and a free printer, the "gift shop" has all the toiletries, medications and snacks you could want, the wet area is well-kept with a medium-sized pool and separate hot tub, and the help-yourself breakfast is great value for $7.51 (inc. tax) offering as much bacon, sausage, scrambled egg, fried potatoes, yoghurt, toast, etc. that you could stuff down.On the fourth floor, you'll find the somewhat upmarket "Trappers Chop House" but I declined to try this, having viewed the menu in the open fire-warmed reception area.  The steak place next door was a third of the price and wasn't lacking in ambience or quality.  Next door to that is another eatery and just down the street, there's a gas station and mini market (including the ubiquitous drive-thru McD's).My only real problem is the altitude which left me constantly breathless in my 5 night stay, waking often during the night, panting.  I'm going to Parker again in 2 months, however, and will definitely be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r5490989-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>5490989</t>
+  </si>
+  <si>
+    <t>07/19/2006</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Stayed while visiting relatives nearby.  The hotel is new. The room was very comfortable.  Bath was very nice.  We were on the freeway but could not hear the road noise.  The pool was nice.  The breakfast was very nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d543070-r5192163-Holiday_Inn_Denver_Parker_E470_Parker_Road-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>5192163</t>
+  </si>
+  <si>
+    <t>05/22/2006</t>
+  </si>
+  <si>
+    <t>Loved the Holiday Inn selcet.</t>
+  </si>
+  <si>
+    <t>Stopped on my way to Utah to do the Grand Circle tour.  It was very clean and  very elegant and I am a real picky person.  It is in a nice area with lots of places to shop or eat. Our rate included a great breakfast.  I made reservations to stay there on my way back home from Utah.</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +3127,12 @@
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2163,14 +3142,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2186,54 +3161,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2323,7 +3292,7 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
@@ -2331,27 +3300,23 @@
       <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2367,52 +3332,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2428,7 +3395,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2437,45 +3404,35 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2491,52 +3448,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2552,31 +3505,35 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2586,14 +3543,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2609,48 +3562,56 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -2666,52 +3627,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>114</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="L11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2727,7 +3688,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2736,34 +3697,34 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2774,7 +3735,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2790,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2799,45 +3760,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2853,7 +3812,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2862,34 +3821,34 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -2897,14 +3856,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
         <v>136</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -2941,31 +3896,31 @@
         <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>143</v>
-      </c>
-      <c r="X15" t="s">
-        <v>144</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2981,52 +3936,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
         <v>146</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>147</v>
       </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" t="s">
-        <v>150</v>
-      </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" t="s">
-        <v>83</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -3042,31 +3993,31 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>153</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>155</v>
       </c>
-      <c r="L17" t="s">
-        <v>156</v>
-      </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
         <v>73</v>
@@ -3083,7 +4034,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -3099,48 +4050,54 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>157</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>158</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>159</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>160</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>161</v>
       </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>162</v>
-      </c>
-      <c r="X18" t="s">
-        <v>163</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -3156,34 +4113,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
         <v>165</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>166</v>
       </c>
-      <c r="J19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" t="s">
-        <v>169</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3194,8 +4151,12 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
       <c r="Y19" t="s">
         <v>169</v>
       </c>
@@ -3213,56 +4174,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>171</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>172</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>173</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>174</v>
       </c>
-      <c r="L20" t="s">
-        <v>175</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>177</v>
-      </c>
-      <c r="X20" t="s">
-        <v>178</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -3278,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3287,49 +4244,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>186</v>
-      </c>
-      <c r="X21" t="s">
-        <v>187</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -3345,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3354,33 +4307,33 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>185</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -3392,7 +4345,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3408,7 +4361,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3417,25 +4370,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3455,7 +4408,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3471,7 +4424,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3480,47 +4433,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -3536,7 +4485,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3545,45 +4494,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
@@ -3599,7 +4552,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3608,25 +4561,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3637,10 +4590,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
@@ -3656,42 +4613,40 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
         <v>220</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>221</v>
       </c>
-      <c r="J27" t="s">
-        <v>216</v>
-      </c>
-      <c r="K27" t="s">
-        <v>222</v>
-      </c>
-      <c r="L27" t="s">
-        <v>223</v>
-      </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s">
-        <v>185</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3703,7 +4658,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
@@ -3719,52 +4674,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>225</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>226</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>227</v>
       </c>
-      <c r="L28" t="s">
-        <v>228</v>
-      </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3780,7 +4735,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3789,43 +4744,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s">
-        <v>185</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
@@ -3841,52 +4792,48 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
         <v>237</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>238</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>239</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>240</v>
       </c>
-      <c r="L30" t="s">
-        <v>241</v>
-      </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
@@ -3902,35 +4849,31 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>242</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>243</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>244</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>245</v>
       </c>
-      <c r="L31" t="s">
-        <v>246</v>
-      </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>235</v>
-      </c>
-      <c r="O31" t="s">
-        <v>185</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3940,10 +4883,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32">
@@ -3959,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3968,45 +4915,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -4022,7 +4963,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4031,43 +4972,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>254</v>
       </c>
-      <c r="J33" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" t="s">
-        <v>256</v>
-      </c>
-      <c r="L33" t="s">
-        <v>257</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>258</v>
-      </c>
       <c r="O33" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
+        <v>260</v>
+      </c>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -4083,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4092,49 +5039,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>265</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
         <v>266</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -4180,11 +5117,15 @@
         <v>73</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -4238,14 +5179,20 @@
         <v>273</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -4293,15 +5240,17 @@
         <v>289</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
@@ -4309,19 +5258,15 @@
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>290</v>
-      </c>
-      <c r="X37" t="s">
-        <v>291</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -4337,56 +5282,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
         <v>293</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>294</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>295</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>296</v>
       </c>
-      <c r="L38" t="s">
-        <v>297</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>298</v>
-      </c>
       <c r="O38" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>299</v>
-      </c>
-      <c r="X38" t="s">
-        <v>300</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39">
@@ -4402,7 +5339,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4411,47 +5348,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>307</v>
-      </c>
-      <c r="X39" t="s">
-        <v>308</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -4467,7 +5396,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4476,34 +5405,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4511,14 +5440,10 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>316</v>
-      </c>
-      <c r="X40" t="s">
-        <v>317</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -4534,7 +5459,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4543,49 +5468,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="O41" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="X41" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
@@ -4601,7 +5524,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4610,47 +5533,45 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>333</v>
-      </c>
-      <c r="X42" t="s">
-        <v>334</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
@@ -4666,7 +5587,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4675,43 +5596,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>342</v>
-      </c>
-      <c r="X43" t="s">
-        <v>343</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44">
@@ -4727,7 +5648,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4736,49 +5657,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s">
-        <v>111</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>351</v>
-      </c>
-      <c r="X44" t="s">
-        <v>352</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
@@ -4794,7 +5711,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4803,45 +5720,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="J45" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46">
@@ -4857,7 +5768,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4866,39 +5777,45 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="O46" t="s">
-        <v>185</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47">
@@ -4914,7 +5831,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4923,32 +5840,32 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="O47" t="s">
-        <v>83</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4956,14 +5873,10 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>371</v>
-      </c>
-      <c r="X47" t="s">
-        <v>372</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48">
@@ -4979,7 +5892,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4988,34 +5901,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5023,14 +5936,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>371</v>
-      </c>
-      <c r="X48" t="s">
-        <v>372</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49">
@@ -5046,7 +5955,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5055,47 +5964,39 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="N49" t="s">
-        <v>385</v>
-      </c>
-      <c r="O49" t="s">
-        <v>185</v>
-      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="X49" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50">
@@ -5111,7 +6012,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5120,38 +6021,32 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="O50" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>5</v>
@@ -5159,14 +6054,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>395</v>
-      </c>
-      <c r="X50" t="s">
-        <v>396</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51">
@@ -5182,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5191,39 +6082,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="J51" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="K51" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="N51" t="s">
+        <v>367</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>403</v>
-      </c>
-      <c r="X51" t="s">
-        <v>404</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52">
@@ -5239,7 +6134,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5248,53 +6143,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s">
-        <v>83</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>412</v>
-      </c>
-      <c r="X52" t="s">
-        <v>413</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53">
@@ -5310,7 +6191,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5319,41 +6200,35 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5361,7 +6236,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
@@ -5377,7 +6252,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5386,49 +6261,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="J54" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="K54" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="O54" t="s">
-        <v>111</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55">
@@ -5444,7 +6309,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5453,38 +6318,34 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>5</v>
       </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5495,7 +6356,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
@@ -5511,7 +6372,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5520,34 +6381,32 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+      <c r="N56" t="s">
+        <v>402</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5558,7 +6417,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57">
@@ -5574,7 +6433,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5583,35 +6442,31 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s">
-        <v>83</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
         <v>3</v>
       </c>
+      <c r="R57" t="s"/>
       <c r="S57" t="n">
         <v>4</v>
       </c>
@@ -5622,10 +6477,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>409</v>
+      </c>
+      <c r="X57" t="s">
+        <v>410</v>
+      </c>
       <c r="Y57" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58">
@@ -5641,7 +6500,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5650,41 +6509,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="O58" t="s">
-        <v>185</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
         <v>4</v>
       </c>
       <c r="R58" t="n">
         <v>4</v>
       </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5692,7 +6547,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
@@ -5708,7 +6563,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5717,49 +6572,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="J59" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="O59" t="s">
-        <v>185</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>3</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>423</v>
+      </c>
+      <c r="X59" t="s">
+        <v>424</v>
+      </c>
       <c r="Y59" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60">
@@ -5775,7 +6624,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5784,53 +6633,43 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="J60" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="K60" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s">
-        <v>185</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>3</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="X60" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="Y60" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61">
@@ -5846,7 +6685,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5855,49 +6694,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="J61" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="X61" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="Y61" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62">
@@ -5913,7 +6746,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5922,49 +6755,47 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="J62" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="K62" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="O62" t="s">
-        <v>185</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>448</v>
+      </c>
+      <c r="X62" t="s">
+        <v>449</v>
+      </c>
       <c r="Y62" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -5980,7 +6811,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5989,45 +6820,43 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="J63" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>2</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>457</v>
+      </c>
+      <c r="X63" t="s">
+        <v>458</v>
+      </c>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64">
@@ -6043,7 +6872,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6052,25 +6881,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="J64" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6078,19 +6907,23 @@
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>465</v>
+      </c>
+      <c r="X64" t="s">
+        <v>466</v>
+      </c>
       <c r="Y64" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65">
@@ -6106,7 +6939,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6115,49 +6948,47 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="J65" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="K65" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" t="n">
-        <v>4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>465</v>
+      </c>
+      <c r="X65" t="s">
+        <v>466</v>
+      </c>
       <c r="Y65" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66">
@@ -6173,7 +7004,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6182,49 +7013,47 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="J66" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="K66" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="O66" t="s">
-        <v>73</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>479</v>
+      </c>
+      <c r="X66" t="s">
+        <v>480</v>
+      </c>
       <c r="Y66" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67">
@@ -6240,7 +7069,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6249,35 +7078,49 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="J67" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="K67" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="L67" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>487</v>
+      </c>
+      <c r="O67" t="s">
+        <v>93</v>
+      </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>488</v>
+      </c>
+      <c r="X67" t="s">
+        <v>489</v>
+      </c>
       <c r="Y67" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68">
@@ -6293,7 +7136,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6302,49 +7145,43 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="J68" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="K68" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="O68" t="s">
-        <v>185</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>4</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>496</v>
+      </c>
+      <c r="X68" t="s">
+        <v>497</v>
+      </c>
       <c r="Y68" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69">
@@ -6360,7 +7197,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6369,49 +7206,43 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="J69" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="K69" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="L69" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="O69" t="s">
         <v>73</v>
       </c>
-      <c r="P69" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="n">
-        <v>5</v>
-      </c>
+      <c r="U69" t="s"/>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>505</v>
+      </c>
+      <c r="X69" t="s">
+        <v>506</v>
+      </c>
       <c r="Y69" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70">
@@ -6427,7 +7258,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6436,35 +7267,3230 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J70" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="K70" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L70" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
-      </c>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>504</v>
+      </c>
+      <c r="O70" t="s">
+        <v>93</v>
+      </c>
       <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
       <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>505</v>
+      </c>
+      <c r="X70" t="s">
+        <v>506</v>
+      </c>
       <c r="Y70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>514</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>515</v>
+      </c>
+      <c r="J71" t="s">
+        <v>516</v>
+      </c>
+      <c r="K71" t="s">
+        <v>517</v>
+      </c>
+      <c r="L71" t="s">
+        <v>518</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>504</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>519</v>
+      </c>
+      <c r="X71" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>523</v>
+      </c>
+      <c r="J72" t="s">
+        <v>524</v>
+      </c>
+      <c r="K72" t="s">
         <v>525</v>
+      </c>
+      <c r="L72" t="s">
+        <v>526</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>528</v>
+      </c>
+      <c r="X72" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="K73" t="s">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s">
+        <v>535</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>537</v>
+      </c>
+      <c r="X73" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>540</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>541</v>
+      </c>
+      <c r="J74" t="s">
+        <v>542</v>
+      </c>
+      <c r="K74" t="s">
+        <v>543</v>
+      </c>
+      <c r="L74" t="s">
+        <v>544</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>546</v>
+      </c>
+      <c r="X74" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>549</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>550</v>
+      </c>
+      <c r="J75" t="s">
+        <v>551</v>
+      </c>
+      <c r="K75" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>554</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>546</v>
+      </c>
+      <c r="X75" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>557</v>
+      </c>
+      <c r="J76" t="s">
+        <v>558</v>
+      </c>
+      <c r="K76" t="s">
+        <v>559</v>
+      </c>
+      <c r="L76" t="s">
+        <v>560</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>561</v>
+      </c>
+      <c r="O76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>562</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>563</v>
+      </c>
+      <c r="J77" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" t="s">
+        <v>565</v>
+      </c>
+      <c r="L77" t="s">
+        <v>566</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>561</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>568</v>
+      </c>
+      <c r="J78" t="s">
+        <v>569</v>
+      </c>
+      <c r="K78" t="s">
+        <v>570</v>
+      </c>
+      <c r="L78" t="s">
+        <v>571</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>572</v>
+      </c>
+      <c r="O78" t="s">
+        <v>106</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>573</v>
+      </c>
+      <c r="X78" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>576</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>577</v>
+      </c>
+      <c r="J79" t="s">
+        <v>578</v>
+      </c>
+      <c r="K79" t="s">
+        <v>579</v>
+      </c>
+      <c r="L79" t="s">
+        <v>580</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>581</v>
+      </c>
+      <c r="X79" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>584</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>585</v>
+      </c>
+      <c r="J80" t="s">
+        <v>586</v>
+      </c>
+      <c r="K80" t="s">
+        <v>587</v>
+      </c>
+      <c r="L80" t="s">
+        <v>588</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>572</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>589</v>
+      </c>
+      <c r="X80" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>593</v>
+      </c>
+      <c r="J81" t="s">
+        <v>594</v>
+      </c>
+      <c r="K81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" t="s">
+        <v>596</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>572</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>589</v>
+      </c>
+      <c r="X81" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>599</v>
+      </c>
+      <c r="J82" t="s">
+        <v>600</v>
+      </c>
+      <c r="K82" t="s">
+        <v>601</v>
+      </c>
+      <c r="L82" t="s">
+        <v>602</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>603</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>604</v>
+      </c>
+      <c r="X82" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>608</v>
+      </c>
+      <c r="J83" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" t="s">
+        <v>610</v>
+      </c>
+      <c r="L83" t="s">
+        <v>611</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>603</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>612</v>
+      </c>
+      <c r="X83" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>615</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>616</v>
+      </c>
+      <c r="J84" t="s">
+        <v>617</v>
+      </c>
+      <c r="K84" t="s">
+        <v>618</v>
+      </c>
+      <c r="L84" t="s">
+        <v>619</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>621</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>622</v>
+      </c>
+      <c r="J85" t="s">
+        <v>623</v>
+      </c>
+      <c r="K85" t="s">
+        <v>624</v>
+      </c>
+      <c r="L85" t="s">
+        <v>625</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>626</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>627</v>
+      </c>
+      <c r="X85" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>630</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>631</v>
+      </c>
+      <c r="J86" t="s">
+        <v>632</v>
+      </c>
+      <c r="K86" t="s">
+        <v>633</v>
+      </c>
+      <c r="L86" t="s">
+        <v>634</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>635</v>
+      </c>
+      <c r="X86" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>638</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>639</v>
+      </c>
+      <c r="J87" t="s">
+        <v>640</v>
+      </c>
+      <c r="K87" t="s">
+        <v>641</v>
+      </c>
+      <c r="L87" t="s">
+        <v>642</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>643</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>644</v>
+      </c>
+      <c r="X87" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>647</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>648</v>
+      </c>
+      <c r="J88" t="s">
+        <v>649</v>
+      </c>
+      <c r="K88" t="s">
+        <v>650</v>
+      </c>
+      <c r="L88" t="s">
+        <v>651</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>652</v>
+      </c>
+      <c r="O88" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>644</v>
+      </c>
+      <c r="X88" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>654</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>655</v>
+      </c>
+      <c r="J89" t="s">
+        <v>656</v>
+      </c>
+      <c r="K89" t="s">
+        <v>657</v>
+      </c>
+      <c r="L89" t="s">
+        <v>658</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>652</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>659</v>
+      </c>
+      <c r="X89" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>662</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>663</v>
+      </c>
+      <c r="J90" t="s">
+        <v>664</v>
+      </c>
+      <c r="K90" t="s">
+        <v>665</v>
+      </c>
+      <c r="L90" t="s">
+        <v>666</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>667</v>
+      </c>
+      <c r="O90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>668</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>669</v>
+      </c>
+      <c r="J91" t="s">
+        <v>670</v>
+      </c>
+      <c r="K91" t="s">
+        <v>671</v>
+      </c>
+      <c r="L91" t="s">
+        <v>672</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>667</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>673</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>674</v>
+      </c>
+      <c r="J92" t="s">
+        <v>675</v>
+      </c>
+      <c r="K92" t="s">
+        <v>676</v>
+      </c>
+      <c r="L92" t="s">
+        <v>677</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>678</v>
+      </c>
+      <c r="O92" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>679</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>680</v>
+      </c>
+      <c r="J93" t="s">
+        <v>681</v>
+      </c>
+      <c r="K93" t="s">
+        <v>682</v>
+      </c>
+      <c r="L93" t="s">
+        <v>683</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>678</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>685</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>686</v>
+      </c>
+      <c r="J94" t="s">
+        <v>687</v>
+      </c>
+      <c r="K94" t="s">
+        <v>688</v>
+      </c>
+      <c r="L94" t="s">
+        <v>689</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>690</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>691</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>692</v>
+      </c>
+      <c r="J95" t="s">
+        <v>693</v>
+      </c>
+      <c r="K95" t="s">
+        <v>694</v>
+      </c>
+      <c r="L95" t="s">
+        <v>695</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>696</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>697</v>
+      </c>
+      <c r="J96" t="s">
+        <v>698</v>
+      </c>
+      <c r="K96" t="s">
+        <v>699</v>
+      </c>
+      <c r="L96" t="s">
+        <v>700</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>701</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>702</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>703</v>
+      </c>
+      <c r="J97" t="s">
+        <v>704</v>
+      </c>
+      <c r="K97" t="s">
+        <v>705</v>
+      </c>
+      <c r="L97" t="s">
+        <v>706</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>701</v>
+      </c>
+      <c r="O97" t="s">
+        <v>93</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>708</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>709</v>
+      </c>
+      <c r="J98" t="s">
+        <v>710</v>
+      </c>
+      <c r="K98" t="s">
+        <v>711</v>
+      </c>
+      <c r="L98" t="s">
+        <v>712</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>713</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>714</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>715</v>
+      </c>
+      <c r="J99" t="s">
+        <v>716</v>
+      </c>
+      <c r="K99" t="s">
+        <v>717</v>
+      </c>
+      <c r="L99" t="s">
+        <v>718</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>713</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>720</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>721</v>
+      </c>
+      <c r="J100" t="s">
+        <v>722</v>
+      </c>
+      <c r="K100" t="s">
+        <v>723</v>
+      </c>
+      <c r="L100" t="s">
+        <v>724</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>725</v>
+      </c>
+      <c r="O100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>727</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>728</v>
+      </c>
+      <c r="J101" t="s">
+        <v>729</v>
+      </c>
+      <c r="K101" t="s">
+        <v>730</v>
+      </c>
+      <c r="L101" t="s">
+        <v>731</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>725</v>
+      </c>
+      <c r="O101" t="s">
+        <v>93</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>732</v>
+      </c>
+      <c r="X101" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>735</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>736</v>
+      </c>
+      <c r="J102" t="s">
+        <v>737</v>
+      </c>
+      <c r="K102" t="s">
+        <v>738</v>
+      </c>
+      <c r="L102" t="s">
+        <v>739</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>740</v>
+      </c>
+      <c r="X102" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>743</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>744</v>
+      </c>
+      <c r="J103" t="s">
+        <v>745</v>
+      </c>
+      <c r="K103" t="s">
+        <v>746</v>
+      </c>
+      <c r="L103" t="s">
+        <v>747</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>748</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>750</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>751</v>
+      </c>
+      <c r="J104" t="s">
+        <v>752</v>
+      </c>
+      <c r="K104" t="s">
+        <v>753</v>
+      </c>
+      <c r="L104" t="s">
+        <v>754</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>755</v>
+      </c>
+      <c r="O104" t="s">
+        <v>106</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>757</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>758</v>
+      </c>
+      <c r="J105" t="s">
+        <v>759</v>
+      </c>
+      <c r="K105" t="s">
+        <v>760</v>
+      </c>
+      <c r="L105" t="s">
+        <v>761</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>755</v>
+      </c>
+      <c r="O105" t="s">
+        <v>93</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>763</v>
+      </c>
+      <c r="J106" t="s">
+        <v>764</v>
+      </c>
+      <c r="K106" t="s">
+        <v>765</v>
+      </c>
+      <c r="L106" t="s">
+        <v>766</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>767</v>
+      </c>
+      <c r="O106" t="s">
+        <v>106</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>769</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>770</v>
+      </c>
+      <c r="J107" t="s">
+        <v>764</v>
+      </c>
+      <c r="K107" t="s">
+        <v>771</v>
+      </c>
+      <c r="L107" t="s">
+        <v>772</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>767</v>
+      </c>
+      <c r="O107" t="s">
+        <v>93</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>773</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>774</v>
+      </c>
+      <c r="J108" t="s">
+        <v>775</v>
+      </c>
+      <c r="K108" t="s">
+        <v>776</v>
+      </c>
+      <c r="L108" t="s">
+        <v>777</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>778</v>
+      </c>
+      <c r="O108" t="s">
+        <v>93</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>779</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>780</v>
+      </c>
+      <c r="J109" t="s">
+        <v>781</v>
+      </c>
+      <c r="K109" t="s">
+        <v>782</v>
+      </c>
+      <c r="L109" t="s">
+        <v>783</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>784</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>785</v>
+      </c>
+      <c r="J110" t="s">
+        <v>786</v>
+      </c>
+      <c r="K110" t="s">
+        <v>787</v>
+      </c>
+      <c r="L110" t="s">
+        <v>788</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>789</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>790</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>791</v>
+      </c>
+      <c r="J111" t="s">
+        <v>792</v>
+      </c>
+      <c r="K111" t="s">
+        <v>793</v>
+      </c>
+      <c r="L111" t="s">
+        <v>794</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>795</v>
+      </c>
+      <c r="O111" t="s">
+        <v>106</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>797</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>798</v>
+      </c>
+      <c r="J112" t="s">
+        <v>799</v>
+      </c>
+      <c r="K112" t="s">
+        <v>800</v>
+      </c>
+      <c r="L112" t="s">
+        <v>801</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>803</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>804</v>
+      </c>
+      <c r="J113" t="s">
+        <v>805</v>
+      </c>
+      <c r="K113" t="s">
+        <v>806</v>
+      </c>
+      <c r="L113" t="s">
+        <v>807</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>808</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>809</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>810</v>
+      </c>
+      <c r="J114" t="s">
+        <v>811</v>
+      </c>
+      <c r="K114" t="s">
+        <v>812</v>
+      </c>
+      <c r="L114" t="s">
+        <v>813</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>814</v>
+      </c>
+      <c r="O114" t="s">
+        <v>73</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>815</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>816</v>
+      </c>
+      <c r="J115" t="s">
+        <v>817</v>
+      </c>
+      <c r="K115" t="s">
+        <v>818</v>
+      </c>
+      <c r="L115" t="s">
+        <v>819</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>820</v>
+      </c>
+      <c r="O115" t="s">
+        <v>93</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>821</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>822</v>
+      </c>
+      <c r="J116" t="s">
+        <v>823</v>
+      </c>
+      <c r="K116" t="s">
+        <v>824</v>
+      </c>
+      <c r="L116" t="s">
+        <v>825</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>826</v>
+      </c>
+      <c r="O116" t="s">
+        <v>106</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>827</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>828</v>
+      </c>
+      <c r="J117" t="s">
+        <v>829</v>
+      </c>
+      <c r="K117" t="s">
+        <v>830</v>
+      </c>
+      <c r="L117" t="s">
+        <v>831</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>833</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>834</v>
+      </c>
+      <c r="J118" t="s">
+        <v>835</v>
+      </c>
+      <c r="K118" t="s">
+        <v>836</v>
+      </c>
+      <c r="L118" t="s">
+        <v>837</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>53230</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>838</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>839</v>
+      </c>
+      <c r="J119" t="s">
+        <v>840</v>
+      </c>
+      <c r="K119" t="s">
+        <v>841</v>
+      </c>
+      <c r="L119" t="s">
+        <v>842</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="s"/>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
